--- a/SCRUM.xlsx
+++ b/SCRUM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Dropbox\TINF13K\Semester VI\SWE II\DSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Dropbox\TINF13K\Semester VI\SWE II\DSP\Git\DSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="522" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="522" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="22" r:id="rId1"/>
@@ -17,7 +17,10 @@
     <sheet name="Backlog" sheetId="8" r:id="rId3"/>
     <sheet name="Sp1" sheetId="19" r:id="rId4"/>
     <sheet name="Sp2" sheetId="23" r:id="rId5"/>
-    <sheet name="Backlog Burndown" sheetId="20" r:id="rId6"/>
+    <sheet name="Sp3" sheetId="24" r:id="rId6"/>
+    <sheet name="Sp4" sheetId="25" r:id="rId7"/>
+    <sheet name="Sp5" sheetId="26" r:id="rId8"/>
+    <sheet name="Backlog Burndown" sheetId="20" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="AverageSpeedLastEight">OFFSET('Backlog Burndown'!$P$27,1,0,'Backlog Burndown'!$G$3,1)</definedName>
@@ -27,10 +30,16 @@
     <definedName name="ColTopRemainingWork">OFFSET('Backlog Burndown'!$F$27,1,0,'Backlog Burndown'!$G$3,1)</definedName>
     <definedName name="DoneDays" localSheetId="3">'Sp1'!$D$11</definedName>
     <definedName name="DoneDays" localSheetId="4">'Sp2'!$D$11</definedName>
+    <definedName name="DoneDays" localSheetId="5">'Sp3'!$D$11</definedName>
+    <definedName name="DoneDays" localSheetId="6">'Sp4'!$D$11</definedName>
+    <definedName name="DoneDays" localSheetId="7">'Sp5'!$D$11</definedName>
     <definedName name="DoneDays">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Backlog!$A:$G</definedName>
     <definedName name="ImplementationDays" localSheetId="3">'Sp1'!$B$9</definedName>
     <definedName name="ImplementationDays" localSheetId="4">'Sp2'!$B$9</definedName>
+    <definedName name="ImplementationDays" localSheetId="5">'Sp3'!$B$9</definedName>
+    <definedName name="ImplementationDays" localSheetId="6">'Sp4'!$B$9</definedName>
+    <definedName name="ImplementationDays" localSheetId="7">'Sp5'!$B$9</definedName>
     <definedName name="ImplementationDays">#REF!</definedName>
     <definedName name="LastEight">IF('Backlog Burndown'!$G$4&gt;8,OFFSET('Backlog Burndown'!$D$27,'Backlog Burndown'!$G$4-7,0,8,1),OFFSET('Backlog Burndown'!$D$27,1,0,'Backlog Burndown'!$G$4-1,1))</definedName>
     <definedName name="LastPlanned">IF(OFFSET('Backlog Burndown'!$B$27,1,0,1,1)="",1,OFFSET('Backlog Burndown'!$B$27,'Backlog Burndown'!$G$3,0,1,1))</definedName>
@@ -42,29 +51,53 @@
     <definedName name="RealizedSpeed">OFFSET('Backlog Burndown'!$D$27,1,0,'Backlog Burndown'!$G$3,1)</definedName>
     <definedName name="RealValues" localSheetId="3">OFFSET('Sp1'!$F$10,0,0,1,'Sp1'!DoneDays)</definedName>
     <definedName name="RealValues" localSheetId="4">OFFSET('Sp2'!$F$10,0,0,1,'Sp2'!DoneDays)</definedName>
+    <definedName name="RealValues" localSheetId="5">OFFSET('Sp3'!$F$10,0,0,1,'Sp3'!DoneDays)</definedName>
+    <definedName name="RealValues" localSheetId="6">OFFSET('Sp4'!$F$10,0,0,1,'Sp4'!DoneDays)</definedName>
+    <definedName name="RealValues" localSheetId="7">OFFSET('Sp5'!$F$10,0,0,1,'Sp5'!DoneDays)</definedName>
     <definedName name="Sprint">Backlog!$E$5:$E$163</definedName>
     <definedName name="SprintCount">'Backlog Burndown'!$G$3</definedName>
     <definedName name="SprintsInTrend">'Backlog Burndown'!$G$6</definedName>
     <definedName name="SprintTasks" localSheetId="3">'Sp1'!$A$14:$AD$63</definedName>
     <definedName name="SprintTasks" localSheetId="4">'Sp2'!$A$14:$AD$63</definedName>
+    <definedName name="SprintTasks" localSheetId="5">'Sp3'!$A$14:$AD$63</definedName>
+    <definedName name="SprintTasks" localSheetId="6">'Sp4'!$A$14:$AD$63</definedName>
+    <definedName name="SprintTasks" localSheetId="7">'Sp5'!$A$14:$AD$63</definedName>
     <definedName name="SprintTasks">#REF!</definedName>
     <definedName name="Status">Backlog!$C$5:$C$163</definedName>
     <definedName name="StoryName">Backlog!$B$5:$B$163</definedName>
+    <definedName name="Task" localSheetId="5">#REF!</definedName>
+    <definedName name="Task" localSheetId="6">#REF!</definedName>
+    <definedName name="Task" localSheetId="7">#REF!</definedName>
     <definedName name="Task">#REF!</definedName>
     <definedName name="TaskRows" localSheetId="3">'Sp1'!$B$11</definedName>
     <definedName name="TaskRows" localSheetId="4">'Sp2'!$B$11</definedName>
+    <definedName name="TaskRows" localSheetId="5">'Sp3'!$B$11</definedName>
+    <definedName name="TaskRows" localSheetId="6">'Sp4'!$B$11</definedName>
+    <definedName name="TaskRows" localSheetId="7">'Sp5'!$B$11</definedName>
     <definedName name="TaskRows">#REF!</definedName>
     <definedName name="TaskStatus" localSheetId="3">'Sp1'!$D$14:$D$58</definedName>
     <definedName name="TaskStatus" localSheetId="4">'Sp2'!$D$14:$D$58</definedName>
+    <definedName name="TaskStatus" localSheetId="5">'Sp3'!$D$14:$D$58</definedName>
+    <definedName name="TaskStatus" localSheetId="6">'Sp4'!$D$14:$D$58</definedName>
+    <definedName name="TaskStatus" localSheetId="7">'Sp5'!$D$14:$D$58</definedName>
     <definedName name="TaskStatus">#REF!</definedName>
     <definedName name="TaskStoryID" localSheetId="3">'Sp1'!$B$14:$B$53</definedName>
     <definedName name="TaskStoryID" localSheetId="4">'Sp2'!$B$14:$B$53</definedName>
+    <definedName name="TaskStoryID" localSheetId="5">'Sp3'!$B$14:$B$53</definedName>
+    <definedName name="TaskStoryID" localSheetId="6">'Sp4'!$B$14:$B$53</definedName>
+    <definedName name="TaskStoryID" localSheetId="7">'Sp5'!$B$14:$B$53</definedName>
     <definedName name="TaskStoryID">#REF!</definedName>
     <definedName name="TotalEffort" localSheetId="3">'Sp1'!$E$10</definedName>
     <definedName name="TotalEffort" localSheetId="4">'Sp2'!$E$10</definedName>
+    <definedName name="TotalEffort" localSheetId="5">'Sp3'!$E$10</definedName>
+    <definedName name="TotalEffort" localSheetId="6">'Sp4'!$E$10</definedName>
+    <definedName name="TotalEffort" localSheetId="7">'Sp5'!$E$10</definedName>
     <definedName name="TotalEffort">#REF!</definedName>
     <definedName name="TrendDays" localSheetId="3">'Sp1'!$D$13</definedName>
     <definedName name="TrendDays" localSheetId="4">'Sp2'!$D$13</definedName>
+    <definedName name="TrendDays" localSheetId="5">'Sp3'!$D$13</definedName>
+    <definedName name="TrendDays" localSheetId="6">'Sp4'!$D$13</definedName>
+    <definedName name="TrendDays" localSheetId="7">'Sp5'!$D$13</definedName>
     <definedName name="TrendDays">#REF!</definedName>
     <definedName name="TrendOffset">'Backlog Burndown'!$G$5</definedName>
     <definedName name="TrendSprintCount">'Backlog Burndown'!$G$4</definedName>
@@ -217,6 +250,78 @@
     <author>Petri Heiramo</author>
   </authors>
   <commentList>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Count only active working and implementation days. Do not include Planning Day or Sprint Review.
+E.g. a 4-week Sprint would most likely have 18 implementation days.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petri Heiramo</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Count only active working and implementation days. Do not include Planning Day or Sprint Review.
+E.g. a 4-week Sprint would most likely have 18 implementation days.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petri Heiramo</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Count only active working and implementation days. Do not include Planning Day or Sprint Review.
+E.g. a 4-week Sprint would most likely have 18 implementation days.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petri Heiramo</author>
+  </authors>
+  <commentList>
     <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
@@ -261,7 +366,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="110">
   <si>
     <t>Goal</t>
   </si>
@@ -863,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1055,11 +1160,154 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -1428,8 +1676,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="114538640"/>
-        <c:axId val="114538248"/>
+        <c:axId val="295298720"/>
+        <c:axId val="295299112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1650,11 +1898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114538640"/>
-        <c:axId val="114538248"/>
+        <c:axId val="295298720"/>
+        <c:axId val="295299112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114538640"/>
+        <c:axId val="295298720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +1911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114538248"/>
+        <c:crossAx val="295299112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1671,7 +1919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114538248"/>
+        <c:axId val="295299112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1746,7 +1994,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114538640"/>
+        <c:crossAx val="295298720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1900,22 +2148,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1987,8 +2235,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="114536680"/>
-        <c:axId val="114539816"/>
+        <c:axId val="295299504"/>
+        <c:axId val="295296368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2017,34 +2265,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.75</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.25</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.7999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.60000000000000053</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2120,25 +2368,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4.1666666666666661</c:v>
+                  <c:v>5.1904761904761907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>4.4476190476190478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.166666666666667</c:v>
+                  <c:v>3.7047619047619045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.9619047619047616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.2190476190476187</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.4761904761904754</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.7333333333333325</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2209,11 +2457,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114536680"/>
-        <c:axId val="114539816"/>
+        <c:axId val="295299504"/>
+        <c:axId val="295296368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114536680"/>
+        <c:axId val="295299504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,7 +2470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114539816"/>
+        <c:crossAx val="295296368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2230,7 +2478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114539816"/>
+        <c:axId val="295296368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2305,7 +2553,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114536680"/>
+        <c:crossAx val="295299504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2417,6 +2665,1656 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17634635691657866"/>
+          <c:y val="8.8235610910252865E-2"/>
+          <c:w val="0.81942977824709606"/>
+          <c:h val="0.8308853360715478"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Daily Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp3'!$F$10:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="297327632"/>
+        <c:axId val="297328024"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp3'!$F$11:$AD$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9166666666666661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58333333333333304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Current Trend</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp3'!$F$12:$AD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5.5238095238095246</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7809523809523808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.038095238095238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2952380952380946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5523809523809513</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8095238095238084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0666666666666647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32380952380952177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="297327632"/>
+        <c:axId val="297328024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="297327632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="297328024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="297328024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Work Remaining (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.13938753959873285"/>
+              <c:y val="0.13970638394123369"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297327632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4477296726504746E-3"/>
+          <c:y val="6.6176708182689656E-2"/>
+          <c:w val="0.11404435058078141"/>
+          <c:h val="0.42647211939955554"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="475" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="0.984251969" l="0.78740157499999996" r="0.78740157499999996" t="0.984251969" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17634635691657866"/>
+          <c:y val="8.8235610910252865E-2"/>
+          <c:w val="0.81942977824709606"/>
+          <c:h val="0.8308853360715478"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Daily Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp4'!$F$10:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="385611208"/>
+        <c:axId val="378190392"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp4'!$F$11:$AD$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Current Trend</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp4'!$F$12:$AD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="385611208"/>
+        <c:axId val="378190392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="385611208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="378190392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="378190392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Work Remaining (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.13938753959873285"/>
+              <c:y val="0.13970638394123369"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385611208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4477296726504746E-3"/>
+          <c:y val="6.6176708182689656E-2"/>
+          <c:w val="0.11404435058078141"/>
+          <c:h val="0.42647211939955554"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="475" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="0.984251969" l="0.78740157499999996" r="0.78740157499999996" t="0.984251969" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17634635691657866"/>
+          <c:y val="8.8235610910252865E-2"/>
+          <c:w val="0.81942977824709606"/>
+          <c:h val="0.8308853360715478"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Daily Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp5'!$F$10:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="378161352"/>
+        <c:axId val="378161744"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ideal Progress</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="969696"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp5'!$F$11:$AD$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Current Trend</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sp5'!$F$12:$AD$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="378161352"/>
+        <c:axId val="378161744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="378161352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="378161744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="378161744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Work Remaining (h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.13938753959873285"/>
+              <c:y val="0.13970638394123369"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="550" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="378161352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4477296726504746E-3"/>
+          <c:y val="6.6176708182689656E-2"/>
+          <c:w val="0.11404435058078141"/>
+          <c:h val="0.42647211939955554"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="475" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="0.984251969" l="0.78740157499999996" r="0.78740157499999996" t="0.984251969" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2774,11 +4672,11 @@
           </c:downBars>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="114537072"/>
-        <c:axId val="114537464"/>
+        <c:axId val="295297152"/>
+        <c:axId val="297331160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114537072"/>
+        <c:axId val="295297152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2813,7 +4711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114537464"/>
+        <c:crossAx val="297331160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2823,7 +4721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114537464"/>
+        <c:axId val="297331160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +4766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114537072"/>
+        <c:crossAx val="295297152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2924,7 +4822,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3080,8 +4978,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="117087216"/>
-        <c:axId val="117086824"/>
+        <c:axId val="297331552"/>
+        <c:axId val="297327240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3225,11 +5123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117087216"/>
-        <c:axId val="117086824"/>
+        <c:axId val="297331552"/>
+        <c:axId val="297327240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117087216"/>
+        <c:axId val="297331552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,7 +5162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117086824"/>
+        <c:crossAx val="297327240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3274,7 +5172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117086824"/>
+        <c:axId val="297327240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3319,7 +5217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117087216"/>
+        <c:crossAx val="297331552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3492,6 +5390,117 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3911,7 +5920,7 @@
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3978,7 +5987,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4043,7 +6052,7 @@
       </c>
       <c r="E4" s="15">
         <f>IF(A4="","",SUMIF(I$16:I$30,'Release Plan'!A4,E$16:E$30))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>70</v>
@@ -4099,7 +6108,7 @@
       </c>
       <c r="E6" s="15">
         <f>IF(A6="","",SUMIF(I$16:I$30,'Release Plan'!A6,E$16:E$30))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F6" s="69" t="s">
         <v>68</v>
@@ -4271,7 +6280,7 @@
         <v>42457</v>
       </c>
       <c r="E17" s="15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>70</v>
@@ -4302,7 +6311,7 @@
         <v>42480</v>
       </c>
       <c r="E18" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" s="72" t="s">
         <v>70</v>
@@ -4333,7 +6342,7 @@
         <v>42489</v>
       </c>
       <c r="E19" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>70</v>
@@ -4364,7 +6373,7 @@
         <v>42510</v>
       </c>
       <c r="E20" s="15">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>68</v>
@@ -4380,9 +6389,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
-        <v>6</v>
-      </c>
+      <c r="A21" s="15"/>
       <c r="B21" s="19" t="str">
         <f>IF(AND(B20&lt;&gt;"",C20&lt;&gt;"",C21&lt;&gt;""),B20+C20,"")</f>
         <v/>
@@ -4650,37 +6657,37 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G4:H10 E31 A4:D10 E5:E10">
-    <cfRule type="expression" dxfId="28" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F10 F16:F30">
-    <cfRule type="expression" dxfId="26" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:E30 G16:H30">
-    <cfRule type="expression" dxfId="23" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
       <formula>OR($F16="Planned",$F16="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
       <formula>$F16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="2" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4702,9 +6709,9 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4811,7 +6818,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="24">
         <v>2</v>
@@ -4831,7 +6838,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="24">
         <v>4</v>
@@ -4851,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="24">
         <v>5</v>
@@ -4871,7 +6878,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="24">
         <v>2</v>
@@ -4891,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="24">
         <v>3</v>
@@ -4908,10 +6915,10 @@
         <v>67</v>
       </c>
       <c r="D12" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="24">
         <v>4</v>
@@ -4931,7 +6938,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="24">
         <v>5</v>
@@ -4954,7 +6961,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="24">
         <v>5</v>
@@ -4974,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="24">
         <v>3</v>
@@ -4994,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="24">
         <v>5</v>
@@ -5014,7 +7021,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="24">
         <v>5</v>
@@ -5034,7 +7041,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18" s="24">
         <v>4</v>
@@ -5067,49 +7074,49 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G44:G52 C45:C46 A11:A52 G23:G41 A54:G163 B47:F52 G11:G21 A4:G10 B11:F44 B5:G18">
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="4" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
       <formula>$C4="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
       <formula>$C43="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
       <formula>$C43="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
       <formula>$C43="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G43">
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="8" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="9" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="10" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="12" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="13" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5132,7 +7139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5266,6 +7273,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
         <v>5</v>
       </c>
       <c r="F10" s="59">
@@ -5386,19 +7394,19 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <f>IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
+        <f ca="1">IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11:AD11" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
         <v>3.75</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.5</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1.25</v>
       </c>
       <c r="J11" s="2" t="str">
@@ -6858,10 +8866,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6885,7 +8893,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6970,7 +8978,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="57">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" s="56"/>
       <c r="D9" s="58"/>
@@ -7010,7 +9018,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="57">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>25</v>
@@ -7019,50 +9027,51 @@
         <v>13</v>
       </c>
       <c r="E10" s="59">
-        <v>5</v>
+        <f ca="1">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
+        <v>6</v>
       </c>
       <c r="F10" s="59">
         <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),0,SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
         <v>4</v>
       </c>
-      <c r="G10" s="59">
-        <f t="shared" ref="G10:AD10" ca="1" si="0">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),"",SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
-        <v>3</v>
-      </c>
       <c r="H10" s="59">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(AND(SUM(OFFSET(H14,1,0,TaskRows,1))=0),0,SUM(OFFSET(H14,1,0,TaskRows,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="I10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(I14,1,0,TaskRows,1))=0),0,SUM(OFFSET(I14,1,0,TaskRows,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="J10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(J14,1,0,TaskRows,1))=0),0,SUM(OFFSET(J14,1,0,TaskRows,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(K14,1,0,TaskRows,1))=0),0,SUM(OFFSET(K14,1,0,TaskRows,1)))</f>
         <v>1</v>
       </c>
-      <c r="I10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="K10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="M10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="O10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="L10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(L14,1,0,TaskRows,1))=0),0,SUM(OFFSET(L14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(M14,1,0,TaskRows,1))=0),0,SUM(OFFSET(M14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(N14,1,0,TaskRows,1))=0),0,SUM(OFFSET(N14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(O14,1,0,TaskRows,1))=0),0,SUM(OFFSET(O14,1,0,TaskRows,1)))</f>
+        <v>0</v>
       </c>
       <c r="P10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="G10:AD10" ca="1" si="0">IF(AND(SUM(OFFSET(P14,1,0,TaskRows,1))=0),"",SUM(OFFSET(P14,1,0,TaskRows,1)))</f>
         <v/>
       </c>
       <c r="Q10" s="59" t="str">
@@ -7128,55 +9137,55 @@
       </c>
       <c r="B11" s="2">
         <f>IF(COUNTA(A15:A242)=0,1,COUNTA(A15:A242))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">IF(COUNTIF(F10:AD10,"&gt;0")=0,1,COUNTIF(F10:AD10,"&gt;0"))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <f>IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
-        <v>5</v>
+        <f ca="1">IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
+        <v>6</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11:AD11" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
-        <v>3.75</v>
+        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <v>5.4</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60000000000000053</v>
       </c>
       <c r="P11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7250,31 +9259,31 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2">
         <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
-        <v>4.1666666666666661</v>
+        <v>5.1904761904761907</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6666666666666665</v>
+        <v>4.4476190476190478</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.166666666666667</v>
-      </c>
-      <c r="I12" s="2" t="str">
+        <v>3.7047619047619045</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="J12" s="2" t="str">
+        <v>2.9619047619047616</v>
+      </c>
+      <c r="J12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="K12" s="2" t="str">
+        <v>2.2190476190476187</v>
+      </c>
+      <c r="K12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="L12" s="2" t="str">
+        <v>1.4761904761904754</v>
+      </c>
+      <c r="L12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>0.7333333333333325</v>
       </c>
       <c r="M12" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -7358,7 +9367,7 @@
       </c>
       <c r="D13" s="2">
         <f ca="1">IF(DoneDays&gt;B10,B10,DoneDays)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -7469,29 +9478,29 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J14" s="60" t="str">
+      <c r="J14" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K14" s="60" t="str">
+        <v>5</v>
+      </c>
+      <c r="K14" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L14" s="60" t="str">
+        <v>6</v>
+      </c>
+      <c r="L14" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M14" s="60" t="str">
+        <v>7</v>
+      </c>
+      <c r="M14" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N14" s="60" t="str">
+        <v>8</v>
+      </c>
+      <c r="N14" s="60">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O14" s="60" t="str">
+        <v>9</v>
+      </c>
+      <c r="O14" s="60">
         <f t="shared" si="3"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="P14" s="60" t="str">
         <f t="shared" si="3"/>
@@ -7556,15 +9565,16 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="71" t="str">
-        <f>Backlog!B5</f>
-        <v>Git Repo anlegen</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
+        <f>Backlog!B7</f>
+        <v>User Stories definieren</v>
+      </c>
+      <c r="B15" s="79">
+        <f>Backlog!A7</f>
+        <v>3</v>
       </c>
       <c r="C15" s="71" t="str">
-        <f>Team!B8</f>
-        <v>Marc Schöchlin</v>
+        <f>Team!B10</f>
+        <v>Peter Bühler</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
@@ -7584,14 +9594,24 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
+      <c r="J15" s="24">
+        <v>0</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0</v>
+      </c>
+      <c r="L15" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="str">
-        <f>Backlog!B6</f>
-        <v>SCRUM Tools evaluieren und Konfigurieren</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
+        <f>Backlog!B7</f>
+        <v>User Stories definieren</v>
+      </c>
+      <c r="B16" s="79">
+        <f>Backlog!A7</f>
+        <v>3</v>
       </c>
       <c r="C16" s="71" t="str">
         <f>Team!B11</f>
@@ -7601,7 +9621,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <v>2</v>
@@ -7610,19 +9630,29 @@
         <v>2</v>
       </c>
       <c r="H16" s="2">
+        <v>2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="24">
         <v>1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="K16" s="24">
+        <v>0</v>
+      </c>
+      <c r="L16" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="71" t="str">
-        <f>Backlog!B6</f>
-        <v>SCRUM Tools evaluieren und Konfigurieren</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
+        <f>Backlog!B8</f>
+        <v>Spezifikation aus User Stories erstellen</v>
+      </c>
+      <c r="B17" s="79">
+        <f>Backlog!A8</f>
+        <v>4</v>
       </c>
       <c r="C17" s="71" t="str">
         <f>Team!B12</f>
@@ -7632,7 +9662,7 @@
         <v>67</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -7641,9 +9671,18 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="24">
+        <v>1</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1</v>
+      </c>
+      <c r="L17" s="24">
         <v>0</v>
       </c>
       <c r="AC17" s="24" t="str">
@@ -7656,15 +9695,45 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="C18"/>
-      <c r="D18" s="25" t="str">
-        <f t="shared" ref="D18:D40" si="5">IF(A18&lt;&gt;"","Planned","")</f>
-        <v/>
-      </c>
-      <c r="F18" s="24" t="str">
-        <f t="shared" ref="F18:U39" si="6">IF(OR(F$14="",$E18=""),"",E18)</f>
-        <v/>
+      <c r="A18" s="71" t="str">
+        <f>Backlog!B8</f>
+        <v>Spezifikation aus User Stories erstellen</v>
+      </c>
+      <c r="B18" s="79">
+        <f>Backlog!A8</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="71" t="str">
+        <f>Team!B10</f>
+        <v>Peter Bühler</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="24">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="shared" ref="F18:U39" si="5">IF(OR(F$14="",$E18=""),"",E18)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="24">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24">
+        <v>0</v>
+      </c>
+      <c r="K18" s="24">
+        <v>0</v>
+      </c>
+      <c r="L18" s="24">
+        <v>0</v>
       </c>
       <c r="AC18" s="24" t="str">
         <f t="shared" si="4"/>
@@ -7678,11 +9747,11 @@
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C19"/>
       <c r="D19" s="25" t="str">
+        <f t="shared" ref="D18:D40" si="6">IF(A19&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+      <c r="F19" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F19" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC19" s="24" t="str">
@@ -7697,11 +9766,11 @@
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C20"/>
       <c r="D20" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F20" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F20" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC20" s="24" t="str">
@@ -7716,11 +9785,11 @@
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C21"/>
       <c r="D21" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F21" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F21" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC21" s="24" t="str">
@@ -7735,11 +9804,11 @@
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C22"/>
       <c r="D22" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F22" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F22" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC22" s="24" t="str">
@@ -7754,11 +9823,11 @@
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23"/>
       <c r="D23" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F23" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F23" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC23" s="24" t="str">
@@ -7773,11 +9842,11 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C24"/>
       <c r="D24" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F24" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F24" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC24" s="24" t="str">
@@ -7792,11 +9861,11 @@
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C25"/>
       <c r="D25" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F25" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F25" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC25" s="24" t="str">
@@ -7811,11 +9880,11 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C26"/>
       <c r="D26" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F26" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F26" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC26" s="24" t="str">
@@ -7830,11 +9899,11 @@
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C27"/>
       <c r="D27" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F27" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F27" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC27" s="24" t="str">
@@ -7849,11 +9918,11 @@
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C28"/>
       <c r="D28" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F28" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F28" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC28" s="24" t="str">
@@ -7868,11 +9937,11 @@
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F29" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F29" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC29" s="24" t="str">
@@ -7887,11 +9956,11 @@
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F30" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F30" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC30" s="24" t="str">
@@ -7906,11 +9975,11 @@
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F31" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F31" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC31" s="24" t="str">
@@ -7925,11 +9994,11 @@
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F32" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F32" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC32" s="24" t="str">
@@ -7944,11 +10013,11 @@
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C33"/>
       <c r="D33" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F33" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F33" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC33" s="24" t="str">
@@ -7963,11 +10032,11 @@
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C34"/>
       <c r="D34" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F34" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F34" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC34" s="24" t="str">
@@ -7982,11 +10051,11 @@
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C35"/>
       <c r="D35" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F35" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F35" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC35" s="24" t="str">
@@ -8001,11 +10070,11 @@
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C36"/>
       <c r="D36" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F36" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F36" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC36" s="24" t="str">
@@ -8020,11 +10089,11 @@
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C37"/>
       <c r="D37" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F37" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F37" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC37" s="24" t="str">
@@ -8039,11 +10108,11 @@
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C38"/>
       <c r="D38" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F38" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F38" s="24" t="str">
-        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AC38" s="24" t="str">
@@ -8058,71 +10127,71 @@
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C39"/>
       <c r="D39" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F39" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F39" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="G39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="S39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="T39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="U39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="V39" s="24" t="str">
@@ -8165,7 +10234,7 @@
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C40"/>
       <c r="D40" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F40" s="24" t="str">
@@ -8606,10 +10675,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8627,6 +10696,5293 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="24" customWidth="1"/>
+    <col min="6" max="30" width="4.42578125" style="24" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="54">
+        <v>3</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="str">
+        <f>'Release Plan'!H18</f>
+        <v>Erste Use Cases modellieren</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="57">
+        <v>12</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="57">
+        <v>12</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
+        <v>7</v>
+      </c>
+      <c r="F10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
+        <v>7</v>
+      </c>
+      <c r="G10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),0,SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="H10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(H14,1,0,TaskRows,1))=0),0,SUM(OFFSET(H14,1,0,TaskRows,1)))</f>
+        <v>3</v>
+      </c>
+      <c r="I10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(I14,1,0,TaskRows,1))=0),0,SUM(OFFSET(I14,1,0,TaskRows,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(J14,1,0,TaskRows,1))=0),0,SUM(OFFSET(J14,1,0,TaskRows,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="K10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(K14,1,0,TaskRows,1))=0),0,SUM(OFFSET(K14,1,0,TaskRows,1)))</f>
+        <v>2</v>
+      </c>
+      <c r="L10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(L14,1,0,TaskRows,1))=0),0,SUM(OFFSET(L14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(M14,1,0,TaskRows,1))=0),0,SUM(OFFSET(M14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(N14,1,0,TaskRows,1))=0),0,SUM(OFFSET(N14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(O14,1,0,TaskRows,1))=0),0,SUM(OFFSET(O14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(P14,1,0,TaskRows,1))=0),0,SUM(OFFSET(P14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(Q14,1,0,TaskRows,1))=0),0,SUM(OFFSET(Q14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="59" t="str">
+        <f t="shared" ref="P10:AM10" ca="1" si="0">IF(AND(SUM(OFFSET(R14,1,0,TaskRows,1))=0),"",SUM(OFFSET(R14,1,0,TaskRows,1)))</f>
+        <v/>
+      </c>
+      <c r="S10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="T10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="U10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="V10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="W10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="X10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Y10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Z10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AA10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AC10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AD10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <f>IF(COUNTA(A15:A242)=0,1,COUNTA(A15:A242))</f>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">IF(COUNTIF(F10:AD10,"&gt;0")=0,1,COUNTIF(F10:AD10,"&gt;0"))</f>
+        <v>6</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <f ca="1">IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <v>6.416666666666667</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.25</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9166666666666661</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1666666666666661</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
+        <v>5.5238095238095246</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.7809523809523808</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.038095238095238</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2952380952380946</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5523809523809513</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8095238095238084</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0666666666666647</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32380952380952177</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="U12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="V12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="W12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="X12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Y12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Z12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AA12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AC12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AD12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <f ca="1">IF(DoneDays&gt;B10,B10,DoneDays)</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f ca="1">IF(DoneDays&gt;E13,E13+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2">
+        <v>7</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2">
+        <v>10</v>
+      </c>
+      <c r="P13" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>12</v>
+      </c>
+      <c r="R13" s="2">
+        <v>13</v>
+      </c>
+      <c r="S13" s="2">
+        <v>14</v>
+      </c>
+      <c r="T13" s="2">
+        <v>15</v>
+      </c>
+      <c r="U13" s="2">
+        <v>16</v>
+      </c>
+      <c r="V13" s="2">
+        <v>17</v>
+      </c>
+      <c r="W13" s="2">
+        <v>18</v>
+      </c>
+      <c r="X13" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="60">
+        <v>1</v>
+      </c>
+      <c r="G14" s="60">
+        <f t="shared" ref="G14:AD14" si="3">IF($B$9&gt;F14,F14+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="60">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="60">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="60">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="60">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L14" s="60">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M14" s="60">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N14" s="60">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O14" s="60">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P14" s="60">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Q14" s="60">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="R14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="71" t="str">
+        <f>Backlog!B9</f>
+        <v>Use Case "Strich hinzufügen" erstellen</v>
+      </c>
+      <c r="B15" s="79">
+        <f>Backlog!A7</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="71" t="str">
+        <f>Team!B12</f>
+        <v>Dennis Hieber</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="24">
+        <v>1</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0</v>
+      </c>
+      <c r="L15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="str">
+        <f>Backlog!B10</f>
+        <v>Use Case "Passwortschutz (de)aktivieren" erstellen</v>
+      </c>
+      <c r="B16" s="79">
+        <f>Backlog!A7</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="71" t="str">
+        <f>Team!B10</f>
+        <v>Peter Bühler</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
+        <v>0</v>
+      </c>
+      <c r="L16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" s="71" t="str">
+        <f>Backlog!B11</f>
+        <v>Use Case "Benutzerverwaltung" erstellen</v>
+      </c>
+      <c r="B17" s="79">
+        <f>Backlog!A8</f>
+        <v>4</v>
+      </c>
+      <c r="C17" s="71" t="str">
+        <f>Team!B12</f>
+        <v>Dennis Hieber</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <v>1</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1</v>
+      </c>
+      <c r="L17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="24" t="str">
+        <f t="shared" ref="AC17:AD32" si="4">IF(OR(AC$14="",$E17=""),"",AB17)</f>
+        <v/>
+      </c>
+      <c r="AD17" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18" s="71" t="str">
+        <f>Backlog!B12</f>
+        <v>Use Case "Kostenberechnung" erstellen</v>
+      </c>
+      <c r="B18" s="79">
+        <f>Backlog!A8</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="71" t="str">
+        <f>Team!B11</f>
+        <v>Lucas Vorpahl</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="24">
+        <v>3</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="shared" ref="F18:U39" si="5">IF(OR(F$14="",$E18=""),"",E18)</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="24">
+        <v>3</v>
+      </c>
+      <c r="H18" s="24">
+        <v>2</v>
+      </c>
+      <c r="I18" s="24">
+        <v>2</v>
+      </c>
+      <c r="J18" s="24">
+        <v>2</v>
+      </c>
+      <c r="K18" s="24">
+        <v>1</v>
+      </c>
+      <c r="L18" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD18" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="D19" s="25" t="str">
+        <f t="shared" ref="D19:D41" si="6">IF(A19&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+      <c r="F19" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC19" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD19" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C20"/>
+      <c r="D20" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F20" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC20" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD20" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+      <c r="D21" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F21" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC21" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD21" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C22"/>
+      <c r="D22" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F22" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC22" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD22" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23"/>
+      <c r="D23" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F23" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC23" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD23" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C24"/>
+      <c r="D24" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F24" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC24" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD24" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C25"/>
+      <c r="D25" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F25" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC25" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD25" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C26"/>
+      <c r="D26" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F26" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC26" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD26" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C27"/>
+      <c r="D27" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F27" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC27" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD27" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C28"/>
+      <c r="D28" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F28" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC28" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD28" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C29"/>
+      <c r="D29" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F29" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC29" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD29" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+      <c r="D30" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F30" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC30" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD30" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+      <c r="D31" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F31" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC31" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD31" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C32"/>
+      <c r="D32" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F32" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC32" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD32" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+      <c r="D33" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F33" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC33" s="24" t="str">
+        <f t="shared" ref="AC33:AD40" si="7">IF(OR(AC$14="",$E33=""),"",AB33)</f>
+        <v/>
+      </c>
+      <c r="AD33" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C34"/>
+      <c r="D34" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F34" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC34" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD34" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C35"/>
+      <c r="D35" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F35" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC35" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD35" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C36"/>
+      <c r="D36" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F36" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC36" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD36" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C37"/>
+      <c r="D37" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F37" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC37" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD37" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C38"/>
+      <c r="D38" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F38" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC38" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD38" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C39"/>
+      <c r="D39" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="T39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="U39" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="V39" s="24" t="str">
+        <f t="shared" ref="V39:AB39" si="8">IF(OR(V$14="",$E39=""),"",U39)</f>
+        <v/>
+      </c>
+      <c r="W39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC39" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD39" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C40"/>
+      <c r="D40" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F40" s="24" t="str">
+        <f t="shared" ref="F40:AB40" si="9">IF(OR(F$14="",$E40=""),"",E40)</f>
+        <v/>
+      </c>
+      <c r="G40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC40" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD40" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+      <c r="B41" s="2"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+      <c r="C42"/>
+      <c r="AC42" s="24" t="str">
+        <f t="shared" ref="AC42:AD47" si="10">IF(OR(AC$14="",$E42=""),"",AB42)</f>
+        <v/>
+      </c>
+      <c r="AD42" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="C43"/>
+      <c r="AC43" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD43" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="C44"/>
+      <c r="AC44" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD44" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+      <c r="C45"/>
+      <c r="AC45" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD45" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="C46"/>
+      <c r="AC46" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD46" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="C47"/>
+      <c r="AC47" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD47" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="C49"/>
+      <c r="AC49" s="24" t="str">
+        <f t="shared" ref="AC49:AD57" si="11">IF(OR(AC$14="",$E49=""),"",AB49)</f>
+        <v/>
+      </c>
+      <c r="AD49" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="C50"/>
+      <c r="AC50" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD50" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="C51"/>
+      <c r="AC51" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD51" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+      <c r="C52"/>
+      <c r="AC52" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD52" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
+      <c r="C53"/>
+      <c r="AC53" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD53" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="C54"/>
+      <c r="AC54" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD54" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+      <c r="C55"/>
+      <c r="AC55" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD55" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
+      <c r="C56"/>
+      <c r="AC56" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD56" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A57" s="23"/>
+      <c r="C57"/>
+      <c r="AC57" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD57" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A58" s="23"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A59" s="23"/>
+      <c r="C59"/>
+      <c r="AC59" s="24" t="str">
+        <f t="shared" ref="AC59:AD63" si="12">IF(OR(AC$14="",$E59=""),"",AB59)</f>
+        <v/>
+      </c>
+      <c r="AD59" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="C60"/>
+      <c r="AC60" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD60" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="C61"/>
+      <c r="AC61" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD61" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A62" s="23"/>
+      <c r="C62"/>
+      <c r="AC62" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD62" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
+      <c r="C63"/>
+      <c r="AC63" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD63" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C64"/>
+      <c r="D64" s="25" t="str">
+        <f t="shared" ref="D64" si="13">IF(A64&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A15:AD58">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+      <formula>$D15="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+      <formula>$D15="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D3:D8 D15:D64">
+      <formula1>"Planned,Ongoing,Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="24" customWidth="1"/>
+    <col min="6" max="30" width="4.42578125" style="24" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="54">
+        <v>4</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="str">
+        <f>'Release Plan'!H19</f>
+        <v>Klassendiagramme und Sequenzdiagramme modellieren</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="57">
+        <v>5</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="57">
+        <v>5</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),0,SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
+        <v>4</v>
+      </c>
+      <c r="H10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(H14,1,0,TaskRows,1))=0),0,SUM(OFFSET(H14,1,0,TaskRows,1)))</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(I14,1,0,TaskRows,1))=0),0,SUM(OFFSET(I14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(J14,1,0,TaskRows,1))=0),0,SUM(OFFSET(J14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59" t="str">
+        <f t="shared" ref="R10:AO10" ca="1" si="0">IF(AND(SUM(OFFSET(R14,1,0,TaskRows,1))=0),"",SUM(OFFSET(R14,1,0,TaskRows,1)))</f>
+        <v/>
+      </c>
+      <c r="S10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="T10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="U10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="V10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="W10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="X10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Y10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Z10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AA10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AC10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AD10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <f>IF(COUNTA(A15:A242)=0,1,COUNTA(A15:A242))</f>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">IF(COUNTIF(F10:AD10,"&gt;0")=0,1,COUNTIF(F10:AD10,"&gt;0"))</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <f ca="1">IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
+        <v>5.3333333333333339</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.3333333333333339</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3333333333333339</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="U12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="V12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="W12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="X12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Y12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="Z12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AA12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AB12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AC12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="AD12" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <f ca="1">IF(DoneDays&gt;B10,B10,DoneDays)</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f ca="1">IF(DoneDays&gt;E13,E13+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2">
+        <v>7</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2">
+        <v>10</v>
+      </c>
+      <c r="P13" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>12</v>
+      </c>
+      <c r="R13" s="2">
+        <v>13</v>
+      </c>
+      <c r="S13" s="2">
+        <v>14</v>
+      </c>
+      <c r="T13" s="2">
+        <v>15</v>
+      </c>
+      <c r="U13" s="2">
+        <v>16</v>
+      </c>
+      <c r="V13" s="2">
+        <v>17</v>
+      </c>
+      <c r="W13" s="2">
+        <v>18</v>
+      </c>
+      <c r="X13" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="60">
+        <v>1</v>
+      </c>
+      <c r="G14" s="60">
+        <f t="shared" ref="G14:AD14" si="3">IF($B$9&gt;F14,F14+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="60">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="60">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="60">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="71" t="str">
+        <f>Backlog!B13</f>
+        <v>Klassendiagramm "Coffee Manager" erstellen</v>
+      </c>
+      <c r="B15" s="79">
+        <f>Backlog!A13</f>
+        <v>9</v>
+      </c>
+      <c r="C15" s="71" t="str">
+        <f>Team!B10</f>
+        <v>Peter Bühler</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="str">
+        <f>Backlog!B14</f>
+        <v>Sequenzdiagramm "Strich hinzufügen" erstellen</v>
+      </c>
+      <c r="B16" s="79">
+        <f>Backlog!A14</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="71" t="str">
+        <f>Team!B11</f>
+        <v>Lucas Vorpahl</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" s="71" t="str">
+        <f>Backlog!B15</f>
+        <v>Sequenzdiagramm "Strichliste bearbeiten" erstellen</v>
+      </c>
+      <c r="B17" s="79">
+        <f>Backlog!A15</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="71" t="str">
+        <f>Team!B12</f>
+        <v>Dennis Hieber</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="24" t="str">
+        <f t="shared" ref="AC17:AD32" si="4">IF(OR(AC$14="",$E17=""),"",AB17)</f>
+        <v/>
+      </c>
+      <c r="AD17" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18" s="71"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="71"/>
+      <c r="AC18" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD18" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="D19" s="25" t="str">
+        <f t="shared" ref="D19:D41" si="5">IF(A19&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+      <c r="F19" s="24" t="str">
+        <f t="shared" ref="F18:U39" si="6">IF(OR(F$14="",$E19=""),"",E19)</f>
+        <v/>
+      </c>
+      <c r="AC19" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD19" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C20"/>
+      <c r="D20" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F20" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC20" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD20" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+      <c r="D21" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F21" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC21" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD21" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C22"/>
+      <c r="D22" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F22" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC22" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD22" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23"/>
+      <c r="D23" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F23" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC23" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD23" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C24"/>
+      <c r="D24" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F24" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC24" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD24" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C25"/>
+      <c r="D25" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F25" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC25" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD25" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C26"/>
+      <c r="D26" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F26" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC26" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD26" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C27"/>
+      <c r="D27" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F27" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC27" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD27" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C28"/>
+      <c r="D28" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F28" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC28" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD28" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C29"/>
+      <c r="D29" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F29" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC29" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD29" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+      <c r="D30" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F30" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC30" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD30" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+      <c r="D31" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F31" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC31" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD31" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C32"/>
+      <c r="D32" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F32" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC32" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD32" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+      <c r="D33" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F33" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC33" s="24" t="str">
+        <f t="shared" ref="AC33:AD40" si="7">IF(OR(AC$14="",$E33=""),"",AB33)</f>
+        <v/>
+      </c>
+      <c r="AD33" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C34"/>
+      <c r="D34" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F34" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC34" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD34" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C35"/>
+      <c r="D35" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F35" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC35" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD35" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C36"/>
+      <c r="D36" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F36" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC36" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD36" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C37"/>
+      <c r="D37" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F37" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC37" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD37" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C38"/>
+      <c r="D38" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F38" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC38" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD38" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C39"/>
+      <c r="D39" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V39" s="24" t="str">
+        <f t="shared" ref="V39:AB39" si="8">IF(OR(V$14="",$E39=""),"",U39)</f>
+        <v/>
+      </c>
+      <c r="W39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC39" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD39" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C40"/>
+      <c r="D40" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F40" s="24" t="str">
+        <f t="shared" ref="F40:AB40" si="9">IF(OR(F$14="",$E40=""),"",E40)</f>
+        <v/>
+      </c>
+      <c r="G40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="I40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="R40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="T40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="U40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="V40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC40" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD40" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+      <c r="B41" s="2"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+      <c r="C42"/>
+      <c r="AC42" s="24" t="str">
+        <f t="shared" ref="AC42:AD47" si="10">IF(OR(AC$14="",$E42=""),"",AB42)</f>
+        <v/>
+      </c>
+      <c r="AD42" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="C43"/>
+      <c r="AC43" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD43" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="C44"/>
+      <c r="AC44" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD44" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+      <c r="C45"/>
+      <c r="AC45" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD45" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="C46"/>
+      <c r="AC46" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD46" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="C47"/>
+      <c r="AC47" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD47" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="C49"/>
+      <c r="AC49" s="24" t="str">
+        <f t="shared" ref="AC49:AD57" si="11">IF(OR(AC$14="",$E49=""),"",AB49)</f>
+        <v/>
+      </c>
+      <c r="AD49" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="C50"/>
+      <c r="AC50" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD50" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="C51"/>
+      <c r="AC51" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD51" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+      <c r="C52"/>
+      <c r="AC52" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD52" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
+      <c r="C53"/>
+      <c r="AC53" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD53" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="C54"/>
+      <c r="AC54" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD54" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+      <c r="C55"/>
+      <c r="AC55" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD55" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
+      <c r="C56"/>
+      <c r="AC56" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD56" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A57" s="23"/>
+      <c r="C57"/>
+      <c r="AC57" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD57" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A58" s="23"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A59" s="23"/>
+      <c r="C59"/>
+      <c r="AC59" s="24" t="str">
+        <f t="shared" ref="AC59:AD63" si="12">IF(OR(AC$14="",$E59=""),"",AB59)</f>
+        <v/>
+      </c>
+      <c r="AD59" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="C60"/>
+      <c r="AC60" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD60" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="C61"/>
+      <c r="AC61" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD61" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A62" s="23"/>
+      <c r="C62"/>
+      <c r="AC62" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD62" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
+      <c r="C63"/>
+      <c r="AC63" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="AD63" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C64"/>
+      <c r="D64" s="25" t="str">
+        <f t="shared" ref="D64" si="13">IF(A64&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A15:AD58">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+      <formula>$D15="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+      <formula>$D15="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D3:D8 D15:D64">
+      <formula1>"Planned,Ongoing,Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="24" customWidth="1"/>
+    <col min="6" max="30" width="4.42578125" style="24" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="54">
+        <v>5</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="str">
+        <f>'Release Plan'!H20</f>
+        <v>Präsentation erstellen</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="57">
+        <v>10</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="57">
+        <v>10</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),0,SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
+        <v>8</v>
+      </c>
+      <c r="H10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(H14,1,0,TaskRows,1))=0),0,SUM(OFFSET(H14,1,0,TaskRows,1)))</f>
+        <v>8</v>
+      </c>
+      <c r="I10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(I14,1,0,TaskRows,1))=0),0,SUM(OFFSET(I14,1,0,TaskRows,1)))</f>
+        <v>11</v>
+      </c>
+      <c r="J10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(J14,1,0,TaskRows,1))=0),0,SUM(OFFSET(J14,1,0,TaskRows,1)))</f>
+        <v>8</v>
+      </c>
+      <c r="K10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(K14,1,0,TaskRows,1))=0),0,SUM(OFFSET(K14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(L14,1,0,TaskRows,1))=0),0,SUM(OFFSET(L14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(M14,1,0,TaskRows,1))=0),0,SUM(OFFSET(M14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(N14,1,0,TaskRows,1))=0),0,SUM(OFFSET(N14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="59">
+        <f ca="1">IF(AND(SUM(OFFSET(O14,1,0,TaskRows,1))=0),0,SUM(OFFSET(O14,1,0,TaskRows,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59" t="str">
+        <f t="shared" ref="R10:AO10" ca="1" si="0">IF(AND(SUM(OFFSET(R14,1,0,TaskRows,1))=0),"",SUM(OFFSET(R14,1,0,TaskRows,1)))</f>
+        <v/>
+      </c>
+      <c r="S10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="T10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="U10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="V10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="W10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="X10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Y10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Z10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AA10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AC10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AD10" s="59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <f>IF(COUNTA(A15:A242)=0,1,COUNTA(A15:A242))</f>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">IF(COUNTIF(F10:AD10,"&gt;0")=0,1,COUNTIF(F10:AD10,"&gt;0"))</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <f ca="1">IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
+        <v>11</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <v>9.9</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2999999999999989</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.9</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.1</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.399999999999999</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.7</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>10.999999999999998</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.299999999999999</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.599999999999998</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.899999999999999</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.2</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.499999999999998</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.799999999999997</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.099999999999998</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.399999999999999</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.699999999999998</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.999999999999996</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.299999999999997</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.599999999999998</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>14.899999999999999</v>
+      </c>
+      <c r="AD12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>15.199999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <f ca="1">IF(DoneDays&gt;B10,B10,DoneDays)</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f ca="1">IF(DoneDays&gt;E13,E13+1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2">
+        <v>7</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8</v>
+      </c>
+      <c r="N13" s="2">
+        <v>9</v>
+      </c>
+      <c r="O13" s="2">
+        <v>10</v>
+      </c>
+      <c r="P13" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>12</v>
+      </c>
+      <c r="R13" s="2">
+        <v>13</v>
+      </c>
+      <c r="S13" s="2">
+        <v>14</v>
+      </c>
+      <c r="T13" s="2">
+        <v>15</v>
+      </c>
+      <c r="U13" s="2">
+        <v>16</v>
+      </c>
+      <c r="V13" s="2">
+        <v>17</v>
+      </c>
+      <c r="W13" s="2">
+        <v>18</v>
+      </c>
+      <c r="X13" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>24</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="60">
+        <v>1</v>
+      </c>
+      <c r="G14" s="60">
+        <f t="shared" ref="G14:AD14" si="3">IF($B$9&gt;F14,F14+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="60">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I14" s="60">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="60">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="60">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L14" s="60">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M14" s="60">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N14" s="60">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O14" s="60">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Q14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="T14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="U14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="V14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD14" s="60" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A15" s="71" t="str">
+        <f>Backlog!B16</f>
+        <v>Informationen für Präsentation zusammentragen</v>
+      </c>
+      <c r="B15" s="79">
+        <f>Backlog!A13</f>
+        <v>9</v>
+      </c>
+      <c r="C15" s="71" t="str">
+        <f>Team!B11</f>
+        <v>Lucas Vorpahl</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="str">
+        <f>Backlog!B17</f>
+        <v>Scrumwise Daten exportieren in Excelsheet</v>
+      </c>
+      <c r="B16" s="79">
+        <f>Backlog!A14</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="71" t="str">
+        <f>Team!B8</f>
+        <v>Marc Schöchlin</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" s="71" t="str">
+        <f>Backlog!B18</f>
+        <v>Präsentation erstellen</v>
+      </c>
+      <c r="B17" s="79">
+        <f>Backlog!A15</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="71" t="str">
+        <f>Team!B12</f>
+        <v>Dennis Hieber</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="24">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="24" t="str">
+        <f t="shared" ref="AC17:AD32" si="4">IF(OR(AC$14="",$E17=""),"",AB17)</f>
+        <v/>
+      </c>
+      <c r="AD17" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A18" s="71"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="71"/>
+      <c r="AC18" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD18" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C19"/>
+      <c r="D19" s="25" t="str">
+        <f t="shared" ref="D19:D41" si="5">IF(A19&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+      <c r="F19" s="24" t="str">
+        <f t="shared" ref="F19:U40" si="6">IF(OR(F$14="",$E19=""),"",E19)</f>
+        <v/>
+      </c>
+      <c r="AC19" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD19" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C20"/>
+      <c r="D20" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F20" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC20" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD20" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C21"/>
+      <c r="D21" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F21" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC21" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD21" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C22"/>
+      <c r="D22" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F22" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC22" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD22" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23"/>
+      <c r="D23" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F23" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC23" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD23" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C24"/>
+      <c r="D24" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F24" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC24" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD24" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C25"/>
+      <c r="D25" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F25" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC25" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD25" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C26"/>
+      <c r="D26" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F26" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC26" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD26" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C27"/>
+      <c r="D27" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F27" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC27" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD27" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C28"/>
+      <c r="D28" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F28" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC28" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD28" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C29"/>
+      <c r="D29" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F29" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC29" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD29" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C30"/>
+      <c r="D30" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F30" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC30" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD30" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C31"/>
+      <c r="D31" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F31" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC31" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD31" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C32"/>
+      <c r="D32" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F32" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC32" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD32" s="24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+      <c r="D33" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F33" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC33" s="24" t="str">
+        <f t="shared" ref="AC33:AD40" si="7">IF(OR(AC$14="",$E33=""),"",AB33)</f>
+        <v/>
+      </c>
+      <c r="AD33" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C34"/>
+      <c r="D34" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F34" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC34" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD34" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C35"/>
+      <c r="D35" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F35" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC35" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD35" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C36"/>
+      <c r="D36" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F36" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC36" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD36" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C37"/>
+      <c r="D37" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F37" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC37" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD37" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C38"/>
+      <c r="D38" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F38" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC38" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD38" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C39"/>
+      <c r="D39" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U39" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V39" s="24" t="str">
+        <f t="shared" ref="V39:AB40" si="8">IF(OR(V$14="",$E39=""),"",U39)</f>
+        <v/>
+      </c>
+      <c r="W39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB39" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC39" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD39" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C40"/>
+      <c r="D40" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U40" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V40" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W40" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X40" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y40" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z40" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA40" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB40" s="24" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC40" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AD40" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A41"/>
+      <c r="B41" s="2"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+      <c r="C42"/>
+      <c r="AC42" s="24" t="str">
+        <f t="shared" ref="AC42:AD47" si="9">IF(OR(AC$14="",$E42=""),"",AB42)</f>
+        <v/>
+      </c>
+      <c r="AD42" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="C43"/>
+      <c r="AC43" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD43" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="C44"/>
+      <c r="AC44" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD44" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+      <c r="C45"/>
+      <c r="AC45" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD45" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="C46"/>
+      <c r="AC46" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD46" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="C47"/>
+      <c r="AC47" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AD47" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="C49"/>
+      <c r="AC49" s="24" t="str">
+        <f t="shared" ref="AC49:AD57" si="10">IF(OR(AC$14="",$E49=""),"",AB49)</f>
+        <v/>
+      </c>
+      <c r="AD49" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A50" s="23"/>
+      <c r="C50"/>
+      <c r="AC50" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD50" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A51" s="23"/>
+      <c r="C51"/>
+      <c r="AC51" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD51" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+      <c r="C52"/>
+      <c r="AC52" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD52" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A53" s="23"/>
+      <c r="C53"/>
+      <c r="AC53" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD53" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A54" s="23"/>
+      <c r="C54"/>
+      <c r="AC54" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD54" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A55" s="23"/>
+      <c r="C55"/>
+      <c r="AC55" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD55" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A56" s="23"/>
+      <c r="C56"/>
+      <c r="AC56" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD56" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A57" s="23"/>
+      <c r="C57"/>
+      <c r="AC57" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AD57" s="24" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A58" s="23"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A59" s="23"/>
+      <c r="C59"/>
+      <c r="AC59" s="24" t="str">
+        <f t="shared" ref="AC59:AD63" si="11">IF(OR(AC$14="",$E59=""),"",AB59)</f>
+        <v/>
+      </c>
+      <c r="AD59" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A60" s="23"/>
+      <c r="C60"/>
+      <c r="AC60" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD60" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A61" s="23"/>
+      <c r="C61"/>
+      <c r="AC61" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD61" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A62" s="23"/>
+      <c r="C62"/>
+      <c r="AC62" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD62" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A63" s="23"/>
+      <c r="C63"/>
+      <c r="AC63" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AD63" s="24" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C64"/>
+      <c r="D64" s="25" t="str">
+        <f t="shared" ref="D64" si="12">IF(A64&lt;&gt;"","Planned","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A15:AD58">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$D15="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>$D15="Ongoing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D3:D8 D15:D64">
+      <formula1>"Planned,Ongoing,Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z51"/>
@@ -10397,13 +17753,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K27:N27 A27:G27 F26 I27 O26:O27 P27:Q27">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>$D26="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>$D26="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>$D26="Removed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SCRUM.xlsx
+++ b/SCRUM.xlsx
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="112">
   <si>
     <t>Goal</t>
   </si>
@@ -696,6 +696,12 @@
   </si>
   <si>
     <t>Backlog ID</t>
+  </si>
+  <si>
+    <t>Live Demo in Präsentation integrieren</t>
+  </si>
+  <si>
+    <t>UML Diagramme in Präsentation integrieren</t>
   </si>
 </sst>
 </file>
@@ -1151,6 +1157,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1160,98 +1169,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <fill>
         <patternFill>
@@ -1313,6 +1235,48 @@
         <patternFill patternType="lightUp">
           <fgColor indexed="10"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1676,8 +1640,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="295298720"/>
-        <c:axId val="295299112"/>
+        <c:axId val="145024288"/>
+        <c:axId val="145024680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1898,11 +1862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295298720"/>
-        <c:axId val="295299112"/>
+        <c:axId val="145024288"/>
+        <c:axId val="145024680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295298720"/>
+        <c:axId val="145024288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +1875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295299112"/>
+        <c:crossAx val="145024680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1919,7 +1883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295299112"/>
+        <c:axId val="145024680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1994,7 +1958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295298720"/>
+        <c:crossAx val="145024288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,8 +2199,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="295299504"/>
-        <c:axId val="295296368"/>
+        <c:axId val="115591832"/>
+        <c:axId val="115587912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2457,11 +2421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="295299504"/>
-        <c:axId val="295296368"/>
+        <c:axId val="115591832"/>
+        <c:axId val="115587912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295299504"/>
+        <c:axId val="115591832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="295296368"/>
+        <c:crossAx val="115587912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2478,7 +2442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="295296368"/>
+        <c:axId val="115587912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2553,7 +2517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295299504"/>
+        <c:crossAx val="115591832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2794,8 +2758,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="297327632"/>
-        <c:axId val="297328024"/>
+        <c:axId val="115594968"/>
+        <c:axId val="115589088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3016,11 +2980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="297327632"/>
-        <c:axId val="297328024"/>
+        <c:axId val="115594968"/>
+        <c:axId val="115589088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="297327632"/>
+        <c:axId val="115594968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +2993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297328024"/>
+        <c:crossAx val="115589088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3037,7 +3001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297328024"/>
+        <c:axId val="115589088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3112,7 +3076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297327632"/>
+        <c:crossAx val="115594968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3332,8 +3296,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="385611208"/>
-        <c:axId val="378190392"/>
+        <c:axId val="378950096"/>
+        <c:axId val="378949312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3554,11 +3518,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="385611208"/>
-        <c:axId val="378190392"/>
+        <c:axId val="378950096"/>
+        <c:axId val="378949312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="385611208"/>
+        <c:axId val="378950096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3567,7 +3531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="378190392"/>
+        <c:crossAx val="378949312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3575,7 +3539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378190392"/>
+        <c:axId val="378949312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3650,7 +3614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385611208"/>
+        <c:crossAx val="378950096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3804,22 +3768,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3885,8 +3849,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="378161352"/>
-        <c:axId val="378161744"/>
+        <c:axId val="378948528"/>
+        <c:axId val="378951664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3915,34 +3879,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6999999999999993</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6</c:v>
+                  <c:v>7.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3999999999999995</c:v>
+                  <c:v>5.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2999999999999989</c:v>
+                  <c:v>3.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1999999999999993</c:v>
+                  <c:v>2.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0999999999999996</c:v>
+                  <c:v>1.2999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -4018,79 +3982,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>11.523809523809524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3000000000000007</c:v>
+                  <c:v>10.580952380952381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6</c:v>
+                  <c:v>9.6380952380952376</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9</c:v>
+                  <c:v>8.6952380952380945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>7.7523809523809524</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5</c:v>
+                  <c:v>6.8095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7999999999999989</c:v>
+                  <c:v>5.8666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.1</c:v>
+                  <c:v>4.9238095238095232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.399999999999999</c:v>
+                  <c:v>3.980952380952381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.7</c:v>
+                  <c:v>3.038095238095238</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.999999999999998</c:v>
+                  <c:v>2.0952380952380949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.299999999999999</c:v>
+                  <c:v>1.1523809523809518</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.599999999999998</c:v>
+                  <c:v>0.20952380952380878</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.899999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.499999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.799999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.099999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.399999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.699999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.999999999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.299999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.599999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.899999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.199999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4107,11 +4071,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="378161352"/>
-        <c:axId val="378161744"/>
+        <c:axId val="378948528"/>
+        <c:axId val="378951664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378161352"/>
+        <c:axId val="378948528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4120,7 +4084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="378161744"/>
+        <c:crossAx val="378951664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4128,7 +4092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378161744"/>
+        <c:axId val="378951664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4203,7 +4167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378161352"/>
+        <c:crossAx val="378948528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4672,11 +4636,11 @@
           </c:downBars>
         </c:upDownBars>
         <c:smooth val="0"/>
-        <c:axId val="295297152"/>
-        <c:axId val="297331160"/>
+        <c:axId val="378950488"/>
+        <c:axId val="378948920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="295297152"/>
+        <c:axId val="378950488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4711,7 +4675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297331160"/>
+        <c:crossAx val="378948920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4721,7 +4685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297331160"/>
+        <c:axId val="378948920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,7 +4730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="295297152"/>
+        <c:crossAx val="378950488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4978,8 +4942,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="297331552"/>
-        <c:axId val="297327240"/>
+        <c:axId val="378952448"/>
+        <c:axId val="378954408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5123,11 +5087,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="297331552"/>
-        <c:axId val="297327240"/>
+        <c:axId val="378952448"/>
+        <c:axId val="378954408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="297331552"/>
+        <c:axId val="378952448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5162,7 +5126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297327240"/>
+        <c:crossAx val="378954408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5172,7 +5136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297327240"/>
+        <c:axId val="378954408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5217,7 +5181,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="297331552"/>
+        <c:crossAx val="378952448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6657,37 +6621,37 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G4:H10 E31 A4:D10 E5:E10">
-    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="3" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F10 F16:F30">
-    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:E30 G16:H30">
-    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
       <formula>OR($F16="Planned",$F16="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
       <formula>$F16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>$F4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>$F4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7074,49 +7038,49 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G44:G52 C45:C46 A11:A52 G23:G41 A54:G163 B47:F52 G11:G21 A4:G10 B11:F44 B5:G18">
-    <cfRule type="expression" dxfId="39" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="2" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
       <formula>$C4="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="35" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="5" stopIfTrue="1">
       <formula>$C43="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="6" stopIfTrue="1">
       <formula>$C43="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
       <formula>$C43="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G43">
-    <cfRule type="expression" dxfId="32" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="9" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="11" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="12" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="13" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8866,10 +8830,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9027,107 +8991,107 @@
         <v>13</v>
       </c>
       <c r="E10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
+        <f t="shared" ref="E10:O10" ca="1" si="0">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
         <v>6</v>
       </c>
       <c r="F10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="G10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),0,SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="H10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(H14,1,0,TaskRows,1))=0),0,SUM(OFFSET(H14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="I10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(I14,1,0,TaskRows,1))=0),0,SUM(OFFSET(I14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="J10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(J14,1,0,TaskRows,1))=0),0,SUM(OFFSET(J14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="K10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(K14,1,0,TaskRows,1))=0),0,SUM(OFFSET(K14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="L10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(L14,1,0,TaskRows,1))=0),0,SUM(OFFSET(L14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(M14,1,0,TaskRows,1))=0),0,SUM(OFFSET(M14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(N14,1,0,TaskRows,1))=0),0,SUM(OFFSET(N14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(O14,1,0,TaskRows,1))=0),0,SUM(OFFSET(O14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="59" t="str">
-        <f t="shared" ref="G10:AD10" ca="1" si="0">IF(AND(SUM(OFFSET(P14,1,0,TaskRows,1))=0),"",SUM(OFFSET(P14,1,0,TaskRows,1)))</f>
+        <f t="shared" ref="P10:AD10" ca="1" si="1">IF(AND(SUM(OFFSET(P14,1,0,TaskRows,1))=0),"",SUM(OFFSET(P14,1,0,TaskRows,1)))</f>
         <v/>
       </c>
       <c r="Q10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="R10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="S10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="T10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="U10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="V10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="W10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="X10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="Y10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="Z10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AA10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AC10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AD10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
@@ -9152,99 +9116,99 @@
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <f t="shared" ref="G11:AD11" ca="1" si="2">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
         <v>5.4</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4.8</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4.2</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3.6</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.60000000000000053</v>
       </c>
       <c r="P11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="X11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Y11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AA11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AB11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AC11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AD11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9258,103 +9222,103 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
+        <f t="shared" ref="F12:AD12" ca="1" si="3">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
         <v>5.1904761904761907</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4.4476190476190478</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.7047619047619045</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.9619047619047616</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.2190476190476187</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.4761904761904754</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.7333333333333325</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Q12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="R12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="T12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="U12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="V12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="W12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="X12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Y12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Z12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AA12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AB12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AC12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AD12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
@@ -9467,99 +9431,99 @@
         <v>1</v>
       </c>
       <c r="G14" s="60">
-        <f t="shared" ref="G14:AD14" si="3">IF($B$9&gt;F14,F14+1,"")</f>
+        <f t="shared" ref="G14:AD14" si="4">IF($B$9&gt;F14,F14+1,"")</f>
         <v>2</v>
       </c>
       <c r="H14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="N14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="O14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="P14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="X14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Y14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Z14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AA14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -9568,7 +9532,7 @@
         <f>Backlog!B7</f>
         <v>User Stories definieren</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="76">
         <f>Backlog!A7</f>
         <v>3</v>
       </c>
@@ -9609,7 +9573,7 @@
         <f>Backlog!B7</f>
         <v>User Stories definieren</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="76">
         <f>Backlog!A7</f>
         <v>3</v>
       </c>
@@ -9650,7 +9614,7 @@
         <f>Backlog!B8</f>
         <v>Spezifikation aus User Stories erstellen</v>
       </c>
-      <c r="B17" s="79">
+      <c r="B17" s="76">
         <f>Backlog!A8</f>
         <v>4</v>
       </c>
@@ -9686,11 +9650,11 @@
         <v>0</v>
       </c>
       <c r="AC17" s="24" t="str">
-        <f t="shared" ref="AC17:AD32" si="4">IF(OR(AC$14="",$E17=""),"",AB17)</f>
+        <f t="shared" ref="AC17:AD32" si="5">IF(OR(AC$14="",$E17=""),"",AB17)</f>
         <v/>
       </c>
       <c r="AD17" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -9699,7 +9663,7 @@
         <f>Backlog!B8</f>
         <v>Spezifikation aus User Stories erstellen</v>
       </c>
-      <c r="B18" s="79">
+      <c r="B18" s="76">
         <f>Backlog!A8</f>
         <v>4</v>
       </c>
@@ -9714,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="24">
-        <f t="shared" ref="F18:U39" si="5">IF(OR(F$14="",$E18=""),"",E18)</f>
+        <f t="shared" ref="F18:U39" si="6">IF(OR(F$14="",$E18=""),"",E18)</f>
         <v>1</v>
       </c>
       <c r="G18" s="24">
@@ -9736,605 +9700,605 @@
         <v>0</v>
       </c>
       <c r="AC18" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD18" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C19"/>
       <c r="D19" s="25" t="str">
-        <f t="shared" ref="D18:D40" si="6">IF(A19&lt;&gt;"","Planned","")</f>
+        <f t="shared" ref="D19:D40" si="7">IF(A19&lt;&gt;"","Planned","")</f>
         <v/>
       </c>
       <c r="F19" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC19" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC19" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD19" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C20"/>
       <c r="D20" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F20" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F20" s="24" t="str">
+      <c r="AC20" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC20" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD20" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C21"/>
       <c r="D21" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F21" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F21" s="24" t="str">
+      <c r="AC21" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC21" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD21" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C22"/>
       <c r="D22" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F22" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F22" s="24" t="str">
+      <c r="AC22" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC22" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD22" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23"/>
       <c r="D23" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F23" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F23" s="24" t="str">
+      <c r="AC23" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD23" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C24"/>
       <c r="D24" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F24" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F24" s="24" t="str">
+      <c r="AC24" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC24" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD24" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C25"/>
       <c r="D25" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F25" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F25" s="24" t="str">
+      <c r="AC25" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC25" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD25" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C26"/>
       <c r="D26" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F26" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F26" s="24" t="str">
+      <c r="AC26" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC26" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD26" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C27"/>
       <c r="D27" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F27" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F27" s="24" t="str">
+      <c r="AC27" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC27" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD27" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C28"/>
       <c r="D28" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F28" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F28" s="24" t="str">
+      <c r="AC28" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC28" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD28" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F29" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F29" s="24" t="str">
+      <c r="AC29" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC29" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD29" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F30" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F30" s="24" t="str">
+      <c r="AC30" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC30" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD30" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F31" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F31" s="24" t="str">
+      <c r="AC31" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC31" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD31" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F32" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F32" s="24" t="str">
+      <c r="AC32" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC32" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD32" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C33"/>
       <c r="D33" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F33" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F33" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC33" s="24" t="str">
-        <f t="shared" ref="AC33:AD40" si="7">IF(OR(AC$14="",$E33=""),"",AB33)</f>
+        <f t="shared" ref="AC33:AD40" si="8">IF(OR(AC$14="",$E33=""),"",AB33)</f>
         <v/>
       </c>
       <c r="AD33" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C34"/>
       <c r="D34" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F34" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F34" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC34" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD34" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C35"/>
       <c r="D35" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F35" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F35" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC35" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD35" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C36"/>
       <c r="D36" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F36" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F36" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC36" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD36" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C37"/>
       <c r="D37" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F37" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F37" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC37" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD37" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C38"/>
       <c r="D38" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F38" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F38" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC38" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD38" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C39"/>
       <c r="D39" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F39" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F39" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="G39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V39" s="24" t="str">
-        <f t="shared" ref="V39:AB39" si="8">IF(OR(V$14="",$E39=""),"",U39)</f>
+        <f t="shared" ref="V39:AB39" si="9">IF(OR(V$14="",$E39=""),"",U39)</f>
         <v/>
       </c>
       <c r="W39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC39" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X39" s="24" t="str">
+      <c r="AD39" s="24" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Y39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Z39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AA39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AB39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AC39" s="24" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AD39" s="24" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C40"/>
       <c r="D40" s="25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F40" s="24" t="str">
-        <f t="shared" ref="F40:AB40" si="9">IF(OR(F$14="",$E40=""),"",E40)</f>
+        <f t="shared" ref="F40:AB40" si="10">IF(OR(F$14="",$E40=""),"",E40)</f>
         <v/>
       </c>
       <c r="G40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Y40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Z40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AB40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC40" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD40" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -10353,11 +10317,11 @@
       <c r="A42" s="23"/>
       <c r="C42"/>
       <c r="AC42" s="24" t="str">
-        <f t="shared" ref="AC42:AD47" si="10">IF(OR(AC$14="",$E42=""),"",AB42)</f>
+        <f t="shared" ref="AC42:AD47" si="11">IF(OR(AC$14="",$E42=""),"",AB42)</f>
         <v/>
       </c>
       <c r="AD42" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10365,11 +10329,11 @@
       <c r="A43" s="23"/>
       <c r="C43"/>
       <c r="AC43" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD43" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10377,11 +10341,11 @@
       <c r="A44" s="23"/>
       <c r="C44"/>
       <c r="AC44" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD44" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10389,11 +10353,11 @@
       <c r="A45" s="23"/>
       <c r="C45"/>
       <c r="AC45" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD45" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10401,11 +10365,11 @@
       <c r="A46" s="23"/>
       <c r="C46"/>
       <c r="AC46" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD46" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10413,11 +10377,11 @@
       <c r="A47" s="23"/>
       <c r="C47"/>
       <c r="AC47" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD47" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10429,11 +10393,11 @@
       <c r="A49" s="23"/>
       <c r="C49"/>
       <c r="AC49" s="24" t="str">
-        <f t="shared" ref="AC49:AD57" si="11">IF(OR(AC$14="",$E49=""),"",AB49)</f>
+        <f t="shared" ref="AC49:AD57" si="12">IF(OR(AC$14="",$E49=""),"",AB49)</f>
         <v/>
       </c>
       <c r="AD49" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10441,11 +10405,11 @@
       <c r="A50" s="23"/>
       <c r="C50"/>
       <c r="AC50" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD50" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10453,11 +10417,11 @@
       <c r="A51" s="23"/>
       <c r="C51"/>
       <c r="AC51" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD51" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10465,11 +10429,11 @@
       <c r="A52" s="23"/>
       <c r="C52"/>
       <c r="AC52" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD52" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10477,11 +10441,11 @@
       <c r="A53" s="23"/>
       <c r="C53"/>
       <c r="AC53" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD53" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10489,11 +10453,11 @@
       <c r="A54" s="23"/>
       <c r="C54"/>
       <c r="AC54" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD54" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10501,11 +10465,11 @@
       <c r="A55" s="23"/>
       <c r="C55"/>
       <c r="AC55" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD55" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10513,11 +10477,11 @@
       <c r="A56" s="23"/>
       <c r="C56"/>
       <c r="AC56" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD56" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10525,11 +10489,11 @@
       <c r="A57" s="23"/>
       <c r="C57"/>
       <c r="AC57" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD57" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10541,11 +10505,11 @@
       <c r="A59" s="23"/>
       <c r="C59"/>
       <c r="AC59" s="24" t="str">
-        <f t="shared" ref="AC59:AD63" si="12">IF(OR(AC$14="",$E59=""),"",AB59)</f>
+        <f t="shared" ref="AC59:AD63" si="13">IF(OR(AC$14="",$E59=""),"",AB59)</f>
         <v/>
       </c>
       <c r="AD59" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10553,11 +10517,11 @@
       <c r="A60" s="23"/>
       <c r="C60"/>
       <c r="AC60" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD60" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10565,11 +10529,11 @@
       <c r="A61" s="23"/>
       <c r="C61"/>
       <c r="AC61" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD61" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10577,11 +10541,11 @@
       <c r="A62" s="23"/>
       <c r="C62"/>
       <c r="AC62" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD62" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10589,18 +10553,18 @@
       <c r="A63" s="23"/>
       <c r="C63"/>
       <c r="AC63" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD63" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C64"/>
       <c r="D64" s="25" t="str">
-        <f t="shared" ref="D64" si="13">IF(A64&lt;&gt;"","Planned","")</f>
+        <f t="shared" ref="D64" si="14">IF(A64&lt;&gt;"","Planned","")</f>
         <v/>
       </c>
     </row>
@@ -10675,10 +10639,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10835,107 +10799,107 @@
         <v>13</v>
       </c>
       <c r="E10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
+        <f t="shared" ref="E10:Q10" ca="1" si="0">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
         <v>7</v>
       </c>
       <c r="F10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="G10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),0,SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="H10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(H14,1,0,TaskRows,1))=0),0,SUM(OFFSET(H14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="I10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(I14,1,0,TaskRows,1))=0),0,SUM(OFFSET(I14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="J10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(J14,1,0,TaskRows,1))=0),0,SUM(OFFSET(J14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="K10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(K14,1,0,TaskRows,1))=0),0,SUM(OFFSET(K14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="L10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(L14,1,0,TaskRows,1))=0),0,SUM(OFFSET(L14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="M10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(M14,1,0,TaskRows,1))=0),0,SUM(OFFSET(M14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(N14,1,0,TaskRows,1))=0),0,SUM(OFFSET(N14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(O14,1,0,TaskRows,1))=0),0,SUM(OFFSET(O14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(P14,1,0,TaskRows,1))=0),0,SUM(OFFSET(P14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(Q14,1,0,TaskRows,1))=0),0,SUM(OFFSET(Q14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R10" s="59" t="str">
-        <f t="shared" ref="P10:AM10" ca="1" si="0">IF(AND(SUM(OFFSET(R14,1,0,TaskRows,1))=0),"",SUM(OFFSET(R14,1,0,TaskRows,1)))</f>
+        <f t="shared" ref="R10:AD10" ca="1" si="1">IF(AND(SUM(OFFSET(R14,1,0,TaskRows,1))=0),"",SUM(OFFSET(R14,1,0,TaskRows,1)))</f>
         <v/>
       </c>
       <c r="S10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="T10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="U10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="V10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="W10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="X10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="Y10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="Z10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AA10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AC10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AD10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
@@ -10960,99 +10924,99 @@
         <v>7</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <f t="shared" ref="G11:AD11" ca="1" si="2">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
         <v>6.416666666666667</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5.833333333333333</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>5.25</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4.6666666666666661</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>4.083333333333333</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3.5</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.9166666666666661</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2.333333333333333</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.75</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1.1666666666666661</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0.58333333333333304</v>
       </c>
       <c r="R11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="X11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Y11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AA11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AB11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AC11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AD11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -11066,103 +11030,103 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
+        <f t="shared" ref="F12:AD12" ca="1" si="3">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
         <v>5.5238095238095246</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4.7809523809523808</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4.038095238095238</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.2952380952380946</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2.5523809523809513</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.8095238095238084</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.0666666666666647</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.32380952380952177</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Q12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="R12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="T12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="U12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="V12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="W12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="X12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Y12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Z12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AA12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AB12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AC12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AD12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
@@ -11275,99 +11239,99 @@
         <v>1</v>
       </c>
       <c r="G14" s="60">
-        <f t="shared" ref="G14:AD14" si="3">IF($B$9&gt;F14,F14+1,"")</f>
+        <f t="shared" ref="G14:AD14" si="4">IF($B$9&gt;F14,F14+1,"")</f>
         <v>2</v>
       </c>
       <c r="H14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="N14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="O14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="P14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="Q14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="R14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="X14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Y14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Z14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AA14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -11376,7 +11340,7 @@
         <f>Backlog!B9</f>
         <v>Use Case "Strich hinzufügen" erstellen</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="76">
         <f>Backlog!A7</f>
         <v>3</v>
       </c>
@@ -11417,7 +11381,7 @@
         <f>Backlog!B10</f>
         <v>Use Case "Passwortschutz (de)aktivieren" erstellen</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="76">
         <f>Backlog!A7</f>
         <v>3</v>
       </c>
@@ -11458,7 +11422,7 @@
         <f>Backlog!B11</f>
         <v>Use Case "Benutzerverwaltung" erstellen</v>
       </c>
-      <c r="B17" s="79">
+      <c r="B17" s="76">
         <f>Backlog!A8</f>
         <v>4</v>
       </c>
@@ -11494,11 +11458,11 @@
         <v>0</v>
       </c>
       <c r="AC17" s="24" t="str">
-        <f t="shared" ref="AC17:AD32" si="4">IF(OR(AC$14="",$E17=""),"",AB17)</f>
+        <f t="shared" ref="AC17:AD32" si="5">IF(OR(AC$14="",$E17=""),"",AB17)</f>
         <v/>
       </c>
       <c r="AD17" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11507,7 +11471,7 @@
         <f>Backlog!B12</f>
         <v>Use Case "Kostenberechnung" erstellen</v>
       </c>
-      <c r="B18" s="79">
+      <c r="B18" s="76">
         <f>Backlog!A8</f>
         <v>4</v>
       </c>
@@ -11522,7 +11486,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="24">
-        <f t="shared" ref="F18:U39" si="5">IF(OR(F$14="",$E18=""),"",E18)</f>
+        <f t="shared" ref="F18:U39" si="6">IF(OR(F$14="",$E18=""),"",E18)</f>
         <v>3</v>
       </c>
       <c r="G18" s="24">
@@ -11544,605 +11508,605 @@
         <v>0</v>
       </c>
       <c r="AC18" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD18" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C19"/>
       <c r="D19" s="25" t="str">
-        <f t="shared" ref="D19:D41" si="6">IF(A19&lt;&gt;"","Planned","")</f>
+        <f t="shared" ref="D19:D40" si="7">IF(A19&lt;&gt;"","Planned","")</f>
         <v/>
       </c>
       <c r="F19" s="24" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC19" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC19" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD19" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C20"/>
       <c r="D20" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F20" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F20" s="24" t="str">
+      <c r="AC20" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC20" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD20" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C21"/>
       <c r="D21" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F21" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F21" s="24" t="str">
+      <c r="AC21" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC21" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD21" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C22"/>
       <c r="D22" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F22" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F22" s="24" t="str">
+      <c r="AC22" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC22" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD22" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23"/>
       <c r="D23" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F23" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F23" s="24" t="str">
+      <c r="AC23" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD23" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C24"/>
       <c r="D24" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F24" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F24" s="24" t="str">
+      <c r="AC24" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC24" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD24" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C25"/>
       <c r="D25" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F25" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F25" s="24" t="str">
+      <c r="AC25" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC25" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD25" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C26"/>
       <c r="D26" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F26" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F26" s="24" t="str">
+      <c r="AC26" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC26" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD26" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C27"/>
       <c r="D27" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F27" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F27" s="24" t="str">
+      <c r="AC27" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC27" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD27" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C28"/>
       <c r="D28" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F28" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F28" s="24" t="str">
+      <c r="AC28" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC28" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD28" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F29" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F29" s="24" t="str">
+      <c r="AC29" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC29" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD29" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F30" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F30" s="24" t="str">
+      <c r="AC30" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC30" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD30" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F31" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F31" s="24" t="str">
+      <c r="AC31" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC31" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD31" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F32" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F32" s="24" t="str">
+      <c r="AC32" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AC32" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD32" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C33"/>
       <c r="D33" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F33" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F33" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC33" s="24" t="str">
-        <f t="shared" ref="AC33:AD40" si="7">IF(OR(AC$14="",$E33=""),"",AB33)</f>
+        <f t="shared" ref="AC33:AD40" si="8">IF(OR(AC$14="",$E33=""),"",AB33)</f>
         <v/>
       </c>
       <c r="AD33" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C34"/>
       <c r="D34" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F34" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F34" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC34" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD34" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C35"/>
       <c r="D35" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F35" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F35" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC35" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD35" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C36"/>
       <c r="D36" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F36" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F36" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC36" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD36" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C37"/>
       <c r="D37" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F37" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F37" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC37" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD37" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C38"/>
       <c r="D38" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F38" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F38" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="AC38" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD38" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C39"/>
       <c r="D39" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F39" s="24" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F39" s="24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="G39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U39" s="24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V39" s="24" t="str">
-        <f t="shared" ref="V39:AB39" si="8">IF(OR(V$14="",$E39=""),"",U39)</f>
+        <f t="shared" ref="V39:AB39" si="9">IF(OR(V$14="",$E39=""),"",U39)</f>
         <v/>
       </c>
       <c r="W39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC39" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X39" s="24" t="str">
+      <c r="AD39" s="24" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Y39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Z39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AA39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AB39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AC39" s="24" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AD39" s="24" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C40"/>
       <c r="D40" s="25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F40" s="24" t="str">
-        <f t="shared" ref="F40:AB40" si="9">IF(OR(F$14="",$E40=""),"",E40)</f>
+        <f t="shared" ref="F40:AB40" si="10">IF(OR(F$14="",$E40=""),"",E40)</f>
         <v/>
       </c>
       <c r="G40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Y40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Z40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AB40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC40" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD40" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -12161,11 +12125,11 @@
       <c r="A42" s="23"/>
       <c r="C42"/>
       <c r="AC42" s="24" t="str">
-        <f t="shared" ref="AC42:AD47" si="10">IF(OR(AC$14="",$E42=""),"",AB42)</f>
+        <f t="shared" ref="AC42:AD47" si="11">IF(OR(AC$14="",$E42=""),"",AB42)</f>
         <v/>
       </c>
       <c r="AD42" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12173,11 +12137,11 @@
       <c r="A43" s="23"/>
       <c r="C43"/>
       <c r="AC43" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD43" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12185,11 +12149,11 @@
       <c r="A44" s="23"/>
       <c r="C44"/>
       <c r="AC44" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD44" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12197,11 +12161,11 @@
       <c r="A45" s="23"/>
       <c r="C45"/>
       <c r="AC45" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD45" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12209,11 +12173,11 @@
       <c r="A46" s="23"/>
       <c r="C46"/>
       <c r="AC46" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD46" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12221,11 +12185,11 @@
       <c r="A47" s="23"/>
       <c r="C47"/>
       <c r="AC47" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD47" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -12237,11 +12201,11 @@
       <c r="A49" s="23"/>
       <c r="C49"/>
       <c r="AC49" s="24" t="str">
-        <f t="shared" ref="AC49:AD57" si="11">IF(OR(AC$14="",$E49=""),"",AB49)</f>
+        <f t="shared" ref="AC49:AD57" si="12">IF(OR(AC$14="",$E49=""),"",AB49)</f>
         <v/>
       </c>
       <c r="AD49" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12249,11 +12213,11 @@
       <c r="A50" s="23"/>
       <c r="C50"/>
       <c r="AC50" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD50" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12261,11 +12225,11 @@
       <c r="A51" s="23"/>
       <c r="C51"/>
       <c r="AC51" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD51" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12273,11 +12237,11 @@
       <c r="A52" s="23"/>
       <c r="C52"/>
       <c r="AC52" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD52" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12285,11 +12249,11 @@
       <c r="A53" s="23"/>
       <c r="C53"/>
       <c r="AC53" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD53" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12297,11 +12261,11 @@
       <c r="A54" s="23"/>
       <c r="C54"/>
       <c r="AC54" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD54" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12309,11 +12273,11 @@
       <c r="A55" s="23"/>
       <c r="C55"/>
       <c r="AC55" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD55" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12321,11 +12285,11 @@
       <c r="A56" s="23"/>
       <c r="C56"/>
       <c r="AC56" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD56" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12333,11 +12297,11 @@
       <c r="A57" s="23"/>
       <c r="C57"/>
       <c r="AC57" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD57" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -12349,11 +12313,11 @@
       <c r="A59" s="23"/>
       <c r="C59"/>
       <c r="AC59" s="24" t="str">
-        <f t="shared" ref="AC59:AD63" si="12">IF(OR(AC$14="",$E59=""),"",AB59)</f>
+        <f t="shared" ref="AC59:AD63" si="13">IF(OR(AC$14="",$E59=""),"",AB59)</f>
         <v/>
       </c>
       <c r="AD59" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -12361,11 +12325,11 @@
       <c r="A60" s="23"/>
       <c r="C60"/>
       <c r="AC60" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD60" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -12373,11 +12337,11 @@
       <c r="A61" s="23"/>
       <c r="C61"/>
       <c r="AC61" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD61" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -12385,11 +12349,11 @@
       <c r="A62" s="23"/>
       <c r="C62"/>
       <c r="AC62" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD62" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -12397,18 +12361,18 @@
       <c r="A63" s="23"/>
       <c r="C63"/>
       <c r="AC63" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD63" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C64"/>
       <c r="D64" s="25" t="str">
-        <f t="shared" ref="D64" si="13">IF(A64&lt;&gt;"","Planned","")</f>
+        <f t="shared" ref="D64" si="14">IF(A64&lt;&gt;"","Planned","")</f>
         <v/>
       </c>
     </row>
@@ -12483,10 +12447,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12643,27 +12607,27 @@
         <v>13</v>
       </c>
       <c r="E10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
+        <f t="shared" ref="E10:J10" ca="1" si="0">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
         <v>5</v>
       </c>
       <c r="F10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="G10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),0,SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="H10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(H14,1,0,TaskRows,1))=0),0,SUM(OFFSET(H14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(I14,1,0,TaskRows,1))=0),0,SUM(OFFSET(I14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(J14,1,0,TaskRows,1))=0),0,SUM(OFFSET(J14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="59"/>
@@ -12674,55 +12638,55 @@
       <c r="P10" s="59"/>
       <c r="Q10" s="59"/>
       <c r="R10" s="59" t="str">
-        <f t="shared" ref="R10:AO10" ca="1" si="0">IF(AND(SUM(OFFSET(R14,1,0,TaskRows,1))=0),"",SUM(OFFSET(R14,1,0,TaskRows,1)))</f>
+        <f t="shared" ref="R10:AD10" ca="1" si="1">IF(AND(SUM(OFFSET(R14,1,0,TaskRows,1))=0),"",SUM(OFFSET(R14,1,0,TaskRows,1)))</f>
         <v/>
       </c>
       <c r="S10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="T10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="U10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="V10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="W10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="X10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="Y10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="Z10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AA10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AC10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AD10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
@@ -12747,99 +12711,99 @@
         <v>5</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <f t="shared" ref="G11:AD11" ca="1" si="2">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
         <v>4</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="X11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Y11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AA11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AB11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AC11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AD11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -12853,103 +12817,103 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
+        <f t="shared" ref="F12:AD12" ca="1" si="3">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
         <v>5.3333333333333339</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3.3333333333333339</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1.3333333333333339</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="L12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="P12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Q12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="R12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="S12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="T12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="U12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="V12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="W12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="X12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Y12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="Z12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AA12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AB12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AC12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AD12" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
     </row>
@@ -13062,99 +13026,99 @@
         <v>1</v>
       </c>
       <c r="G14" s="60">
-        <f t="shared" ref="G14:AD14" si="3">IF($B$9&gt;F14,F14+1,"")</f>
+        <f t="shared" ref="G14:AD14" si="4">IF($B$9&gt;F14,F14+1,"")</f>
         <v>2</v>
       </c>
       <c r="H14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="X14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Y14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Z14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AA14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -13163,7 +13127,7 @@
         <f>Backlog!B13</f>
         <v>Klassendiagramm "Coffee Manager" erstellen</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="76">
         <f>Backlog!A13</f>
         <v>9</v>
       </c>
@@ -13198,7 +13162,7 @@
         <f>Backlog!B14</f>
         <v>Sequenzdiagramm "Strich hinzufügen" erstellen</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="76">
         <f>Backlog!A14</f>
         <v>10</v>
       </c>
@@ -13233,7 +13197,7 @@
         <f>Backlog!B15</f>
         <v>Sequenzdiagramm "Strichliste bearbeiten" erstellen</v>
       </c>
-      <c r="B17" s="79">
+      <c r="B17" s="76">
         <f>Backlog!A15</f>
         <v>11</v>
       </c>
@@ -13263,618 +13227,618 @@
         <v>0</v>
       </c>
       <c r="AC17" s="24" t="str">
-        <f t="shared" ref="AC17:AD32" si="4">IF(OR(AC$14="",$E17=""),"",AB17)</f>
+        <f t="shared" ref="AC17:AD32" si="5">IF(OR(AC$14="",$E17=""),"",AB17)</f>
         <v/>
       </c>
       <c r="AD17" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="71"/>
-      <c r="B18" s="79"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="71"/>
       <c r="AC18" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD18" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C19"/>
       <c r="D19" s="25" t="str">
-        <f t="shared" ref="D19:D41" si="5">IF(A19&lt;&gt;"","Planned","")</f>
+        <f t="shared" ref="D19:D40" si="6">IF(A19&lt;&gt;"","Planned","")</f>
         <v/>
       </c>
       <c r="F19" s="24" t="str">
-        <f t="shared" ref="F18:U39" si="6">IF(OR(F$14="",$E19=""),"",E19)</f>
+        <f t="shared" ref="F19:U39" si="7">IF(OR(F$14="",$E19=""),"",E19)</f>
         <v/>
       </c>
       <c r="AC19" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD19" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C20"/>
       <c r="D20" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F20" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC20" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F20" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC20" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD20" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C21"/>
       <c r="D21" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F21" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC21" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F21" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC21" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD21" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C22"/>
       <c r="D22" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F22" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC22" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F22" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC22" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD22" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23"/>
       <c r="D23" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F23" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC23" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F23" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC23" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD23" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C24"/>
       <c r="D24" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F24" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC24" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F24" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC24" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD24" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C25"/>
       <c r="D25" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F25" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC25" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F25" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC25" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD25" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C26"/>
       <c r="D26" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F26" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC26" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F26" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC26" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD26" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C27"/>
       <c r="D27" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F27" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC27" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F27" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC27" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD27" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C28"/>
       <c r="D28" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F28" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC28" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F28" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC28" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD28" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F29" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC29" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F29" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC29" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD29" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F30" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC30" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F30" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC30" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD30" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F31" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC31" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F31" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC31" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD31" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F32" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AC32" s="24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F32" s="24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="AC32" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="AD32" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C33"/>
       <c r="D33" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F33" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC33" s="24" t="str">
-        <f t="shared" ref="AC33:AD40" si="7">IF(OR(AC$14="",$E33=""),"",AB33)</f>
+        <f t="shared" ref="AC33:AD40" si="8">IF(OR(AC$14="",$E33=""),"",AB33)</f>
         <v/>
       </c>
       <c r="AD33" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C34"/>
       <c r="D34" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F34" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC34" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD34" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C35"/>
       <c r="D35" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F35" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC35" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD35" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C36"/>
       <c r="D36" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F36" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC36" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD36" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C37"/>
       <c r="D37" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F37" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC37" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD37" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C38"/>
       <c r="D38" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F38" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AC38" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD38" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C39"/>
       <c r="D39" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U39" s="24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V39" s="24" t="str">
-        <f t="shared" ref="V39:AB39" si="8">IF(OR(V$14="",$E39=""),"",U39)</f>
+        <f t="shared" ref="V39:AB39" si="9">IF(OR(V$14="",$E39=""),"",U39)</f>
         <v/>
       </c>
       <c r="W39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC39" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X39" s="24" t="str">
+      <c r="AD39" s="24" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Y39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Z39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AA39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AB39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AC39" s="24" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AD39" s="24" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C40"/>
       <c r="D40" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F40" s="24" t="str">
-        <f t="shared" ref="F40:AB40" si="9">IF(OR(F$14="",$E40=""),"",E40)</f>
+        <f t="shared" ref="F40:AB40" si="10">IF(OR(F$14="",$E40=""),"",E40)</f>
         <v/>
       </c>
       <c r="G40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="R40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="T40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="U40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="V40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="X40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Y40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Z40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AB40" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AC40" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD40" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -13893,11 +13857,11 @@
       <c r="A42" s="23"/>
       <c r="C42"/>
       <c r="AC42" s="24" t="str">
-        <f t="shared" ref="AC42:AD47" si="10">IF(OR(AC$14="",$E42=""),"",AB42)</f>
+        <f t="shared" ref="AC42:AD47" si="11">IF(OR(AC$14="",$E42=""),"",AB42)</f>
         <v/>
       </c>
       <c r="AD42" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13905,11 +13869,11 @@
       <c r="A43" s="23"/>
       <c r="C43"/>
       <c r="AC43" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD43" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13917,11 +13881,11 @@
       <c r="A44" s="23"/>
       <c r="C44"/>
       <c r="AC44" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD44" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13929,11 +13893,11 @@
       <c r="A45" s="23"/>
       <c r="C45"/>
       <c r="AC45" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD45" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13941,11 +13905,11 @@
       <c r="A46" s="23"/>
       <c r="C46"/>
       <c r="AC46" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD46" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13953,11 +13917,11 @@
       <c r="A47" s="23"/>
       <c r="C47"/>
       <c r="AC47" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD47" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -13969,11 +13933,11 @@
       <c r="A49" s="23"/>
       <c r="C49"/>
       <c r="AC49" s="24" t="str">
-        <f t="shared" ref="AC49:AD57" si="11">IF(OR(AC$14="",$E49=""),"",AB49)</f>
+        <f t="shared" ref="AC49:AD57" si="12">IF(OR(AC$14="",$E49=""),"",AB49)</f>
         <v/>
       </c>
       <c r="AD49" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13981,11 +13945,11 @@
       <c r="A50" s="23"/>
       <c r="C50"/>
       <c r="AC50" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD50" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -13993,11 +13957,11 @@
       <c r="A51" s="23"/>
       <c r="C51"/>
       <c r="AC51" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD51" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -14005,11 +13969,11 @@
       <c r="A52" s="23"/>
       <c r="C52"/>
       <c r="AC52" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD52" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -14017,11 +13981,11 @@
       <c r="A53" s="23"/>
       <c r="C53"/>
       <c r="AC53" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD53" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -14029,11 +13993,11 @@
       <c r="A54" s="23"/>
       <c r="C54"/>
       <c r="AC54" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD54" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -14041,11 +14005,11 @@
       <c r="A55" s="23"/>
       <c r="C55"/>
       <c r="AC55" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD55" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -14053,11 +14017,11 @@
       <c r="A56" s="23"/>
       <c r="C56"/>
       <c r="AC56" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD56" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -14065,11 +14029,11 @@
       <c r="A57" s="23"/>
       <c r="C57"/>
       <c r="AC57" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD57" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -14081,11 +14045,11 @@
       <c r="A59" s="23"/>
       <c r="C59"/>
       <c r="AC59" s="24" t="str">
-        <f t="shared" ref="AC59:AD63" si="12">IF(OR(AC$14="",$E59=""),"",AB59)</f>
+        <f t="shared" ref="AC59:AD63" si="13">IF(OR(AC$14="",$E59=""),"",AB59)</f>
         <v/>
       </c>
       <c r="AD59" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -14093,11 +14057,11 @@
       <c r="A60" s="23"/>
       <c r="C60"/>
       <c r="AC60" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD60" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -14105,11 +14069,11 @@
       <c r="A61" s="23"/>
       <c r="C61"/>
       <c r="AC61" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD61" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -14117,11 +14081,11 @@
       <c r="A62" s="23"/>
       <c r="C62"/>
       <c r="AC62" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD62" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -14129,18 +14093,18 @@
       <c r="A63" s="23"/>
       <c r="C63"/>
       <c r="AC63" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AD63" s="24" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C64"/>
       <c r="D64" s="25" t="str">
-        <f t="shared" ref="D64" si="13">IF(A64&lt;&gt;"","Planned","")</f>
+        <f t="shared" ref="D64" si="14">IF(A64&lt;&gt;"","Planned","")</f>
         <v/>
       </c>
     </row>
@@ -14215,10 +14179,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14241,7 +14205,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14375,101 +14339,101 @@
         <v>13</v>
       </c>
       <c r="E10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
-        <v>11</v>
+        <f t="shared" ref="E10:O10" ca="1" si="0">IF(AND(SUM(OFFSET(E14,1,0,TaskRows,1))=0),0,SUM(OFFSET(E14,1,0,TaskRows,1)))</f>
+        <v>13</v>
       </c>
       <c r="F10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(F14,1,0,TaskRows,1))=0),0,SUM(OFFSET(F14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G10" s="59">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="59">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I10" s="59">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J10" s="59">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="G10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(G14,1,0,TaskRows,1))=0),0,SUM(OFFSET(G14,1,0,TaskRows,1)))</f>
-        <v>8</v>
-      </c>
-      <c r="H10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(H14,1,0,TaskRows,1))=0),0,SUM(OFFSET(H14,1,0,TaskRows,1)))</f>
-        <v>8</v>
-      </c>
-      <c r="I10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(I14,1,0,TaskRows,1))=0),0,SUM(OFFSET(I14,1,0,TaskRows,1)))</f>
-        <v>11</v>
-      </c>
-      <c r="J10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(J14,1,0,TaskRows,1))=0),0,SUM(OFFSET(J14,1,0,TaskRows,1)))</f>
-        <v>8</v>
-      </c>
       <c r="K10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(K14,1,0,TaskRows,1))=0),0,SUM(OFFSET(K14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="59">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(L14,1,0,TaskRows,1))=0),0,SUM(OFFSET(L14,1,0,TaskRows,1)))</f>
+      <c r="M10" s="59">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(M14,1,0,TaskRows,1))=0),0,SUM(OFFSET(M14,1,0,TaskRows,1)))</f>
+      <c r="N10" s="59">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="N10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(N14,1,0,TaskRows,1))=0),0,SUM(OFFSET(N14,1,0,TaskRows,1)))</f>
-        <v>0</v>
-      </c>
       <c r="O10" s="59">
-        <f ca="1">IF(AND(SUM(OFFSET(O14,1,0,TaskRows,1))=0),0,SUM(OFFSET(O14,1,0,TaskRows,1)))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P10" s="59"/>
       <c r="Q10" s="59"/>
       <c r="R10" s="59" t="str">
-        <f t="shared" ref="R10:AO10" ca="1" si="0">IF(AND(SUM(OFFSET(R14,1,0,TaskRows,1))=0),"",SUM(OFFSET(R14,1,0,TaskRows,1)))</f>
+        <f t="shared" ref="R10:AD10" ca="1" si="1">IF(AND(SUM(OFFSET(R14,1,0,TaskRows,1))=0),"",SUM(OFFSET(R14,1,0,TaskRows,1)))</f>
         <v/>
       </c>
       <c r="S10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="T10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="U10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="V10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="W10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="X10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="Y10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="Z10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AA10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AB10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AC10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AD10" s="59" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
@@ -14479,114 +14443,114 @@
       </c>
       <c r="B11" s="2">
         <f>IF(COUNTA(A15:A242)=0,1,COUNTA(A15:A242))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">IF(COUNTIF(F10:AD10,"&gt;0")=0,1,COUNTIF(F10:AD10,"&gt;0"))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
         <f ca="1">IF(F14="","",$E10-$E10/($B9-1)*(F14-1))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" ref="G11:AD11" ca="1" si="1">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
-        <v>9.9</v>
+        <f t="shared" ref="G11:AD11" ca="1" si="2">IF(G14="","",TotalEffort-TotalEffort/(ImplementationDays)*(G14-1))</f>
+        <v>11.7</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.8000000000000007</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10.4</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.6999999999999993</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.1</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7.8</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6.5</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.3999999999999995</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5.1999999999999993</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.2999999999999989</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9000000000000004</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1999999999999993</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5999999999999996</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0999999999999996</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2999999999999989</v>
       </c>
       <c r="P11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="S11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="T11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="U11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="V11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="W11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="X11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Y11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AA11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AB11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AC11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AD11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14600,104 +14564,104 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:AD12" ca="1" si="2">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
-        <v>8</v>
+        <f t="shared" ref="F12:AD12" ca="1" si="3">IF(TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13)&lt;0,"",TREND(OFFSET($F10,0,DoneDays-TrendDays,1,TrendDays),OFFSET($F13,0,DoneDays-TrendDays,1,TrendDays),F13))</f>
+        <v>11.523809523809524</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10.580952380952381</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.6380952380952376</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8.6952380952380945</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.1999999999999993</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7.7523809523809524</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6.8095238095238093</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.7999999999999989</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.8666666666666663</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.9238095238095232</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.399999999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.980952380952381</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.7</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.038095238095238</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.999999999999998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.0952380952380949</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.299999999999999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.1523809523809518</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.599999999999998</v>
-      </c>
-      <c r="S12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.899999999999999</v>
-      </c>
-      <c r="T12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.2</v>
-      </c>
-      <c r="U12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.499999999999998</v>
-      </c>
-      <c r="V12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.799999999999997</v>
-      </c>
-      <c r="W12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.099999999999998</v>
-      </c>
-      <c r="X12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.399999999999999</v>
-      </c>
-      <c r="Y12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.699999999999998</v>
-      </c>
-      <c r="Z12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>13.999999999999996</v>
-      </c>
-      <c r="AA12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.299999999999997</v>
-      </c>
-      <c r="AB12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.599999999999998</v>
-      </c>
-      <c r="AC12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.899999999999999</v>
-      </c>
-      <c r="AD12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.199999999999998</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.20952380952380878</v>
+      </c>
+      <c r="S12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="U12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="V12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="W12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="X12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Y12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Z12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AA12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AB12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AC12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="AD12" s="2" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:30" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -14709,7 +14673,7 @@
       </c>
       <c r="D13" s="2">
         <f ca="1">IF(DoneDays&gt;B10,B10,DoneDays)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
@@ -14809,99 +14773,99 @@
         <v>1</v>
       </c>
       <c r="G14" s="60">
-        <f t="shared" ref="G14:AD14" si="3">IF($B$9&gt;F14,F14+1,"")</f>
+        <f t="shared" ref="G14:AD14" si="4">IF($B$9&gt;F14,F14+1,"")</f>
         <v>2</v>
       </c>
       <c r="H14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="I14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="L14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="M14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="N14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="O14" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="P14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="R14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="T14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="U14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="W14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="X14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Y14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Z14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AA14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AB14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AC14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="AD14" s="60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -14910,7 +14874,7 @@
         <f>Backlog!B16</f>
         <v>Informationen für Präsentation zusammentragen</v>
       </c>
-      <c r="B15" s="79">
+      <c r="B15" s="76">
         <f>Backlog!A13</f>
         <v>9</v>
       </c>
@@ -14919,7 +14883,7 @@
         <v>Lucas Vorpahl</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2">
         <v>3</v>
@@ -14938,6 +14902,9 @@
       </c>
       <c r="J15" s="24">
         <v>2</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -14945,7 +14912,7 @@
         <f>Backlog!B17</f>
         <v>Scrumwise Daten exportieren in Excelsheet</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="76">
         <f>Backlog!A14</f>
         <v>10</v>
       </c>
@@ -14954,7 +14921,7 @@
         <v>Marc Schöchlin</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
@@ -14973,6 +14940,9 @@
       </c>
       <c r="J16" s="24">
         <v>1</v>
+      </c>
+      <c r="K16" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
@@ -14980,7 +14950,7 @@
         <f>Backlog!B18</f>
         <v>Präsentation erstellen</v>
       </c>
-      <c r="B17" s="79">
+      <c r="B17" s="76">
         <f>Backlog!A15</f>
         <v>11</v>
       </c>
@@ -14989,7 +14959,7 @@
         <v>Dennis Hieber</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
@@ -15007,53 +14977,115 @@
         <v>5</v>
       </c>
       <c r="J17" s="24">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K17" s="24">
+        <v>2</v>
       </c>
       <c r="AC17" s="24" t="str">
-        <f t="shared" ref="AC17:AD32" si="4">IF(OR(AC$14="",$E17=""),"",AB17)</f>
+        <f t="shared" ref="AC17:AD32" si="5">IF(OR(AC$14="",$E17=""),"",AB17)</f>
         <v/>
       </c>
       <c r="AD17" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="71"/>
+      <c r="A18" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="76">
+        <f>Backlog!A15</f>
+        <v>11</v>
+      </c>
+      <c r="C18" s="71" t="str">
+        <f>Team!B11</f>
+        <v>Lucas Vorpahl</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="24">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="24">
+        <v>1</v>
+      </c>
+      <c r="J18" s="24">
+        <v>1</v>
+      </c>
+      <c r="K18" s="24">
+        <v>1</v>
+      </c>
       <c r="AC18" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD18" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C19"/>
-      <c r="D19" s="25" t="str">
-        <f t="shared" ref="D19:D41" si="5">IF(A19&lt;&gt;"","Planned","")</f>
-        <v/>
-      </c>
-      <c r="F19" s="24" t="str">
+      <c r="A19" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="24">
+        <f>Backlog!A15</f>
+        <v>11</v>
+      </c>
+      <c r="C19" s="71" t="str">
+        <f>Team!B12</f>
+        <v>Dennis Hieber</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
         <f t="shared" ref="F19:U40" si="6">IF(OR(F$14="",$E19=""),"",E19)</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1</v>
+      </c>
+      <c r="I19" s="24">
+        <v>1</v>
+      </c>
+      <c r="J19" s="24">
+        <v>1</v>
+      </c>
+      <c r="K19" s="24">
+        <v>1</v>
       </c>
       <c r="AC19" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD19" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C20"/>
       <c r="D20" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D19:D40" si="7">IF(A20&lt;&gt;"","Planned","")</f>
         <v/>
       </c>
       <c r="F20" s="24" t="str">
@@ -15061,18 +15093,18 @@
         <v/>
       </c>
       <c r="AC20" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD20" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C21"/>
       <c r="D21" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F21" s="24" t="str">
@@ -15080,18 +15112,18 @@
         <v/>
       </c>
       <c r="AC21" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD21" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C22"/>
       <c r="D22" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F22" s="24" t="str">
@@ -15099,18 +15131,18 @@
         <v/>
       </c>
       <c r="AC22" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD22" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23"/>
       <c r="D23" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F23" s="24" t="str">
@@ -15118,18 +15150,18 @@
         <v/>
       </c>
       <c r="AC23" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD23" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C24"/>
       <c r="D24" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F24" s="24" t="str">
@@ -15137,18 +15169,18 @@
         <v/>
       </c>
       <c r="AC24" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD24" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C25"/>
       <c r="D25" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F25" s="24" t="str">
@@ -15156,18 +15188,18 @@
         <v/>
       </c>
       <c r="AC25" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD25" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C26"/>
       <c r="D26" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F26" s="24" t="str">
@@ -15175,18 +15207,18 @@
         <v/>
       </c>
       <c r="AC26" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD26" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C27"/>
       <c r="D27" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F27" s="24" t="str">
@@ -15194,18 +15226,18 @@
         <v/>
       </c>
       <c r="AC27" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD27" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C28"/>
       <c r="D28" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F28" s="24" t="str">
@@ -15213,18 +15245,18 @@
         <v/>
       </c>
       <c r="AC28" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD28" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="D29" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F29" s="24" t="str">
@@ -15232,18 +15264,18 @@
         <v/>
       </c>
       <c r="AC29" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD29" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="D30" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F30" s="24" t="str">
@@ -15251,18 +15283,18 @@
         <v/>
       </c>
       <c r="AC30" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD30" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="D31" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F31" s="24" t="str">
@@ -15270,18 +15302,18 @@
         <v/>
       </c>
       <c r="AC31" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD31" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C32"/>
       <c r="D32" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F32" s="24" t="str">
@@ -15289,18 +15321,18 @@
         <v/>
       </c>
       <c r="AC32" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="AD32" s="24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C33"/>
       <c r="D33" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F33" s="24" t="str">
@@ -15308,18 +15340,18 @@
         <v/>
       </c>
       <c r="AC33" s="24" t="str">
-        <f t="shared" ref="AC33:AD40" si="7">IF(OR(AC$14="",$E33=""),"",AB33)</f>
+        <f t="shared" ref="AC33:AD40" si="8">IF(OR(AC$14="",$E33=""),"",AB33)</f>
         <v/>
       </c>
       <c r="AD33" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C34"/>
       <c r="D34" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F34" s="24" t="str">
@@ -15327,18 +15359,18 @@
         <v/>
       </c>
       <c r="AC34" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD34" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C35"/>
       <c r="D35" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F35" s="24" t="str">
@@ -15346,18 +15378,18 @@
         <v/>
       </c>
       <c r="AC35" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD35" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C36"/>
       <c r="D36" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F36" s="24" t="str">
@@ -15365,18 +15397,18 @@
         <v/>
       </c>
       <c r="AC36" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD36" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C37"/>
       <c r="D37" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F37" s="24" t="str">
@@ -15384,18 +15416,18 @@
         <v/>
       </c>
       <c r="AC37" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD37" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C38"/>
       <c r="D38" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F38" s="24" t="str">
@@ -15403,18 +15435,18 @@
         <v/>
       </c>
       <c r="AC38" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AD38" s="24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C39"/>
       <c r="D39" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F39" s="24" t="str">
@@ -15482,46 +15514,46 @@
         <v/>
       </c>
       <c r="V39" s="24" t="str">
-        <f t="shared" ref="V39:AB40" si="8">IF(OR(V$14="",$E39=""),"",U39)</f>
+        <f t="shared" ref="V39:AB40" si="9">IF(OR(V$14="",$E39=""),"",U39)</f>
         <v/>
       </c>
       <c r="W39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB39" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC39" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X39" s="24" t="str">
+      <c r="AD39" s="24" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Y39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Z39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AA39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AB39" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AC39" s="24" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AD39" s="24" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C40"/>
       <c r="D40" s="25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F40" s="24" t="str">
@@ -15589,39 +15621,39 @@
         <v/>
       </c>
       <c r="V40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="W40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="X40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Y40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Z40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AA40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AB40" s="24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AC40" s="24" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="W40" s="24" t="str">
+      <c r="AD40" s="24" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="X40" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Y40" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Z40" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AA40" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AB40" s="24" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AC40" s="24" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AD40" s="24" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -15640,11 +15672,11 @@
       <c r="A42" s="23"/>
       <c r="C42"/>
       <c r="AC42" s="24" t="str">
-        <f t="shared" ref="AC42:AD47" si="9">IF(OR(AC$14="",$E42=""),"",AB42)</f>
+        <f t="shared" ref="AC42:AD47" si="10">IF(OR(AC$14="",$E42=""),"",AB42)</f>
         <v/>
       </c>
       <c r="AD42" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15652,11 +15684,11 @@
       <c r="A43" s="23"/>
       <c r="C43"/>
       <c r="AC43" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD43" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15664,11 +15696,11 @@
       <c r="A44" s="23"/>
       <c r="C44"/>
       <c r="AC44" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD44" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15676,11 +15708,11 @@
       <c r="A45" s="23"/>
       <c r="C45"/>
       <c r="AC45" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD45" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15688,11 +15720,11 @@
       <c r="A46" s="23"/>
       <c r="C46"/>
       <c r="AC46" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD46" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15700,11 +15732,11 @@
       <c r="A47" s="23"/>
       <c r="C47"/>
       <c r="AC47" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AD47" s="24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15716,11 +15748,11 @@
       <c r="A49" s="23"/>
       <c r="C49"/>
       <c r="AC49" s="24" t="str">
-        <f t="shared" ref="AC49:AD57" si="10">IF(OR(AC$14="",$E49=""),"",AB49)</f>
+        <f t="shared" ref="AC49:AD57" si="11">IF(OR(AC$14="",$E49=""),"",AB49)</f>
         <v/>
       </c>
       <c r="AD49" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15728,11 +15760,11 @@
       <c r="A50" s="23"/>
       <c r="C50"/>
       <c r="AC50" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD50" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15740,11 +15772,11 @@
       <c r="A51" s="23"/>
       <c r="C51"/>
       <c r="AC51" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD51" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15752,11 +15784,11 @@
       <c r="A52" s="23"/>
       <c r="C52"/>
       <c r="AC52" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD52" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15764,11 +15796,11 @@
       <c r="A53" s="23"/>
       <c r="C53"/>
       <c r="AC53" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD53" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15776,11 +15808,11 @@
       <c r="A54" s="23"/>
       <c r="C54"/>
       <c r="AC54" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD54" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15788,11 +15820,11 @@
       <c r="A55" s="23"/>
       <c r="C55"/>
       <c r="AC55" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD55" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15800,11 +15832,11 @@
       <c r="A56" s="23"/>
       <c r="C56"/>
       <c r="AC56" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD56" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15812,11 +15844,11 @@
       <c r="A57" s="23"/>
       <c r="C57"/>
       <c r="AC57" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AD57" s="24" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -15828,11 +15860,11 @@
       <c r="A59" s="23"/>
       <c r="C59"/>
       <c r="AC59" s="24" t="str">
-        <f t="shared" ref="AC59:AD63" si="11">IF(OR(AC$14="",$E59=""),"",AB59)</f>
+        <f t="shared" ref="AC59:AD63" si="12">IF(OR(AC$14="",$E59=""),"",AB59)</f>
         <v/>
       </c>
       <c r="AD59" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -15840,11 +15872,11 @@
       <c r="A60" s="23"/>
       <c r="C60"/>
       <c r="AC60" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD60" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -15852,11 +15884,11 @@
       <c r="A61" s="23"/>
       <c r="C61"/>
       <c r="AC61" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD61" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -15864,11 +15896,11 @@
       <c r="A62" s="23"/>
       <c r="C62"/>
       <c r="AC62" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD62" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -15876,18 +15908,18 @@
       <c r="A63" s="23"/>
       <c r="C63"/>
       <c r="AC63" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD63" s="24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C64"/>
       <c r="D64" s="25" t="str">
-        <f t="shared" ref="D64" si="12">IF(A64&lt;&gt;"","Planned","")</f>
+        <f t="shared" ref="D64" si="13">IF(A64&lt;&gt;"","Planned","")</f>
         <v/>
       </c>
     </row>
@@ -15962,10 +15994,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A15:AD58">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
       <formula>$D15="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
       <formula>$D15="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16077,11 +16109,11 @@
       <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="76">
+      <c r="A8" s="77">
         <f>D$4</f>
         <v>5</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="77"/>
       <c r="D8" s="45">
         <f ca="1">IF(D28="","",AVERAGE(OFFSET(D27,TrendOffset,0,SprintsInTrend,1)))</f>
         <v>25</v>
@@ -16181,11 +16213,11 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="76">
+      <c r="A18" s="77">
         <f>D$4</f>
         <v>5</v>
       </c>
-      <c r="B18" s="76"/>
+      <c r="B18" s="77"/>
       <c r="D18" s="46">
         <f ca="1">IF(D8="","",IF(LastRealized="",ROUNDUP(LastPlanned/D8,0)+SprintCount-1,ROUNDUP((LastPlanned-LastRealized)/D8+SprintCount,0)))</f>
         <v>6</v>
@@ -16260,22 +16292,22 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78" t="s">
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="78"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
     </row>
     <row r="27" spans="1:17" s="3" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
@@ -16296,10 +16328,10 @@
       <c r="F27" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="77"/>
+      <c r="H27" s="78"/>
       <c r="I27" s="50" t="s">
         <v>28</v>
       </c>
@@ -17753,13 +17785,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K27:N27 A27:G27 F26 I27 O26:O27 P27:Q27">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>$D26="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
       <formula>$D26="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
       <formula>$D26="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
